--- a/news_data/2017_01.xlsx
+++ b/news_data/2017_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,54 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 전국생활체육대축전은 관광과 연계한 대회 만든다</t>
+  </si>
+  <si>
+    <t>제주도,23~25일 해외 제주관광홍보사무소 워크숍</t>
+  </si>
+  <si>
+    <t>제주도 '관광객 환경보전기여금 제도' 도입 추진</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광시장 다변화 나섰다</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 관광객 불편사항 해소 종합상황실 운영</t>
+  </si>
+  <si>
+    <t>[르포] 춘제 연휴가 코앞인데… 유커가 사라진 제주도 관광시장</t>
+  </si>
+  <si>
+    <t>문혁기 제주맥주 대표 "제주도에 수제맥주 관광명소 만들것"</t>
+  </si>
+  <si>
+    <t>[주말여행] 겨울 수확하기 좋은 농촌관광코스 9선, 경기도부터 제주도까지 전...</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 서귀포 중문여행 향토음식의 진수를 맛보자</t>
+  </si>
+  <si>
+    <t>㈜백령여행사, 백령 어르신 모시고 제주도 2박 3일 효도관광</t>
+  </si>
+  <si>
+    <t>제주도의회, '제주관광 발전 협의 간담회' 개최</t>
+  </si>
+  <si>
+    <t>제주도, 해외제주관광홍보사무소 합동 워크숍</t>
+  </si>
+  <si>
+    <t>모바일폰 빅데이터로 제주도 관광패턴 분석해보니…</t>
+  </si>
+  <si>
+    <t>제주도, 올해 관광분야 834억원 투입 5대시책 추진</t>
+  </si>
+  <si>
+    <t>[프로필] 현수송 제주도 민군복합형관광미항 갈등해소지원단장</t>
+  </si>
+  <si>
+    <t>中 악성 스모그에 '폐정화 관광' 까지…제주도·푸껫 선호</t>
+  </si>
+  <si>
     <t>제주도관광협회 골프동호회 1월 친선골프대회</t>
   </si>
   <si>
@@ -49,28 +97,76 @@
     <t>제주도 관광, 夏 2030대·冬 4050대 많아</t>
   </si>
   <si>
-    <t>제주도관광협회 골프동호회 1월 친선골프대회 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 골프동호회 1월 친선골프대회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도관광협회 골프동호회 1월 친선골프대회 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.01.11 16:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회 골프동호회는 지난 10일 회원 30여명이 참가한 가운데 1월 친선골프대회를 개최했다. ⓒ제주의소리 제주도관광협회 골프동호회(회장 정양훈·제주통나무휴양펜션 대표)는 지난 1월10일 스프링데일CC에서 회원사 임직원과 가족 등 30여명이 참가한 가운데 1월 친선 골프대회를 개최했다.김영진 제주도관광협회장은 이번 대회를 끝으로 1년 임기를 마친 정양훈 골프동호회장에게 2016년 한해 동안 골프동호회 발전과 도내 관광업계 유기적 네트워크 구축에 노력해준 공로로 감사패를 전달했다.신임 골프동호회장에는 고규완 (주)제주씨월드 대표가 선임됐다.◇대회 결과△우승=김서윤 제주사랑렌트카 전무 △메달리스트=고규완 제주씨월드 대표 △준우승=고맹종 이디컴 대표 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 전세기 운항 지원사업 지속 추진-국민일보 시사 시사 &gt; 전체기사 제주도관광협회, 전세기 운항 지원사업 지속 추진 입력 : 2017-01-08 22:05 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도와 제주도관광협회는 ‘도내 여행업계 전세기 운항 지원’ 평가회를 열고 지난해 제주를 오가는 국제선 전세기를 통해 외국인 관광객 1016명을 유치했다고 8일 밝혔다. 두 기관은 일본·필리핀·중국 등에서 전세기 6편(왕복 12회)을 운항해 전체 예정 모객 인원(1111명) 중 91.5%를 유치하는 성과를 거뒀다. 특히 도내 여행사 27곳이 전세기 운항에 참여하면서 호텔·관광지·식당 등 57곳이 외국인 관광객들에게 소개됐다. 도관광협회는 여행업계의 지속적인 참여 확대를 위해 효과적인 지원기준을 마련할 방침이다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 김건희 논문 증인들 줄줄이 국감 불출석…野 “국민무시” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 ‘김치용 배추’ 구글 번역기 돌리니 ‘Chinese cabbage’ 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건 전남에 전국 첫 저메탄 조사료 종합유통센터 설치</t>
-  </si>
-  <si>
-    <t>제주특별자치도관광협회, 탐나오에서 제주도 감귤, 오메기떡 등 특산품 판매 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-04 10:15 (화) 처음으로 로그인 회원가입 이전 다음 제주특별자치도관광협회, 탐나오에서 제주도 감귤, 오메기떡 등 특산품 판매 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주특별자치도관광협회, 탐나오에서 제주도 감귤, 오메기떡 등 특산품 판매 홍재희 기자 승인 2017.01.13 09:00 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도가 지원하고 제주특별자치도관광협회가 운영하는 제주여행 오픈마켓에서 제주도 특산기념품 판매를 시작했다고 밝혔다. 지난해 3월 제주도관광협회에서 오픈한 제주도 온라인마켓은 중간 수수료 거품을 없애 저렴한 제주의 여행 및 관광 상품을 판매하는 곳으로 알려진 곳이며 합리적이고 다양한 상품을 선보이는 할인마켓으로 알려지면서 오픈 10개월 만에 매출 20억원을 돌파하기도 했다. 높은 신뢰성을 구축한 이 오픈마켓은 항공권과 숙박, 렌터카 등 여행상품 외에 제주도를 직접 여행하기 힘든 사람들이 제주도의 음식과 가공품 등을 경험할 수 있도록 제주도산 감귤과 한라봉 등의 과일과 가공식품, 향장품 등을 소개하고 있다. 현재 제철인 제주 감귤과 한라봉, 황금향 등과 함께 겨울 제주의 전통 보양식 꿩엿 등을 구매할 수 있으며 일부 품목은 할인 판매되고 있다. 특히 1월 설 명절이 다가오면서 최근엔 제주 흑돼지와 각종 수산물, 오메기떡과 제주를 담은 다양한 선물세트 주문도 이어지고 있다. 제주의 마유 등 토산물이 함유된 화장품 등 뷰티 용품도 판매하고 있으며 호기심에 핸드크림과 비누를 구매했던 고객들 중심으로 기초 스킨케어 구매 문의가 이어지고 있다. 제주도에서 ‘제주도 우수관광기념품’ 등을 매년 선정한 기념품을 판매하고 있으며 특색있고 재미있는 공예품도 주문 제작이 가능하다. 제주도관광협회 관계자는 “단순히 제주도 관광상품만 파는 곳이 아닌 특산 기념품도 판매하고 있으며 제주도 고유의 특산품을 지속적으로 연구, 개발하고 있다”라고 전했다. 제주도 특산물과 관광패키지 구매 및 문의는 탐나오 홈페이지에서 확인할 수 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 홍재희 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 2 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 3 [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” 4 “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” 5 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 오늘이 주요뉴스 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 긴급속보 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 정책 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 긴급속보 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 보안자료 2022년_상반기_악성코드_은닉사이트_탐지_동향_보고서(KISA) 개인정보보호위원회, 개인정보의 기술적 관리적 보호조치 기준 개정 해설서(2022.8.) 금융보안원-전자금융과 금융보안 제29호 아동·청소년 개인정보 보호 가이드라인(2022.7, 제정) 정보보호 해외진출 전략거점 월간 주요동향(2022년 7월) 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
-  </si>
-  <si>
-    <t>제주도 제주관광 질적 성장과 시장 다변화에 초점 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 제주관광 질적 성장과 시장 다변화에 초점 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 제주관광 질적 성장과 시장 다변화에 초점 기자명 윤주형 기자 입력 2017.01.05 14:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저가관광 근절 등 5개 역점분야 발표 제주도가 제주관광의 질적 성장과 시장 다변화 등을 위해 저가관광 근절 등 5개 역점분야를 발표했다. 도는 올해 질적 성장 내실화, 저가관광 근절 및 관광사업체 경쟁력 강화, 고품격 마이스(MICE)산업 육성, 마케팅 전략변화 및 시장 다변화, 대중국 전략적 대응 및 협업체계 구축 등 5개 분야를 집중적으로 추진한다고 5일 밝혔다. 이에 따라 도는 모두 834억원을 들여 제주관광의 질적 성장과 시장을 다변화한다는 방침이다. 도는 우선 도민과 관광객 만족 실현을 위한 질적 성장 내실화와 제주관광 이미지 제고에 주력한다. 이를 위해 도는 제주관광 수용력 분석연구 등을 실시해 관광객 급증에 따른 제주 미래 방문수요 예측, 숙박시설, 상·하수도, 폐기물 등 분야별 관광 인프라 수용 능력 분석 및 대응방안을 마련한다는 복안이다. 또 저가관광 근절과 관광사업체 경쟁력 강화 등을 위해 무등록여행업, 무자격 가이드, 자가용 유상 운송행위 합동단속 강화, 외국인 관광객 다중 이용업체 점검, 적정 송객수수료 상한 제한 제도개선 지속 건의 등을 추진할 계획이다. 이와 함께 도는 동남아와 신흥시장은 해외사무소 거점을 통한 시장 다변화를 꾀하고 타깃 마케팅을 추진한다. 이승찬 제주도 관광국장은 "지난해부터 중국 정부의 한한령, 사드 문제, 전세기 운항 불허 등 중국시장 변화가 유동적이지만 국제 정세의 동향을 분석해 대응함으로써 제주관광의 해외시장 다변화 유도 기회로 삼을 것"이라며 "관광협력시스템을 통해 제주관광 내실화에도 총력을 다할 것"이라고 말했다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 '질적관광 전환' 5대 정책 발표...사업비 834억 투입 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 '질적관광 전환' 5대 정책 발표...사업비 834억 투입 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 '질적관광 전환' 5대 정책 발표...사업비 834억 투입 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2017.01.05 15:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 올해 사업비 834억원을 투입하는 관광분야 5대 역점 정책을 5일 발표했다.중점 추진될 5대 정책은 △질적성장 내실화 △저가관광 근절과 관광사업체 경쟁력 강화 △고품격 MICE산업 육성 △마케팅 전략변화와 시장다변화 △대 중국 전략적 대응 및 협업체계 구축 등이다.우선 345억원의 예산을 들여 도민과 관광객 만족 실현을 위한 질적성장 내실화와 제주관광 이미지 제고에 주력한다는 방침이다.'제주관광 수용력 분석'연구를 실시해 관광객 급증에 따른 제주미래 방문수요 예측, 숙박시설, 상․하수도, 폐기물 등 분야별 관광인프라 수용능력 분석 및 대응방안을 강구하고, 개별관광객 안전과 편의를 위해 '제주관광종합 지원서비스센터'를 하반기부터 운영한다. 이와 더불어 제주관광의 정확한 산업통계 구축을 위해 올해부터 1000여개소의 사업체 표본을 대상으로 '관광산업 동향조사'도 실시한다. 저가관광 근절과 관광사업체 경쟁력 강화를 견인하기 위해 22억원의 사업비를 지원한다.테마별 우수 여행상품 선정과 홍보, 제주관광아카데미 교육, 우수관광사업체 지정 및 홍보, 관광기념품 공모전 개최 및 입상작 홍보 지원 등 관광사업체 지원도 다양하게 확대한다.또 저가관광 근절을 위해 무등록여행업, 무자격 가이드, 자가용 유상 운송행위 합동단속 강화와 외국인 관광객 다중 이용업체에 대해 점검을 실시하고, 적정 송객수수료 상한 제한 제도개선 건의도 지속적으로 추진해 나갈 계획이다.고품격 제주관광 실현 등을 위해서는 356억원의 사업비를 투자해 MICE산업 육성을 도모한다. MICE 다목적 복합시설 확충을 추진하고, 국내.국제회의 개최, MICE 유치 및 인센티브 투어 지원, 제주 MICE대전 등을 통해 MICE 산업 경쟁력을 강화한다.마케팅 전략변화와 시장다변화 등을 위해 108억원의 사업비를 투자한다. 중화권은 저가단체 관광을 고부가 개별.목적관광으로 전환하고 이를 유도하기 위해 헬스, 도보 등 테마상품 개발을 통해 현지여행사와 랜드여행사를 매칭한다.일본 지역은 전국 및 지역 TV 광고 추진 등 제주관광이미지 혁신을 위한 홍보에 주력하고, 동남아와 신흥시장은 해외사무소 거점을 통한 시장 다변화를 꾀하고 타깃 마케팅을 추진한다.제주도 관계자는 "지난해부터 중국 정부의 한한령, 사드문제, 전세기 운항 불허 등 중국시장 변화가 유동적이지만, 국제 정세의 동향을 분석해 대응함으로써 제주관광의 해외시장 다변화 유도 기회로 삼을 것”이며 “관광협력시스템을 통해 제주관광 내실화에도 총력을 다할 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 볼거리 실컷 구경 후 중문 맛집 들려보자 &lt; 상생단지 &lt; 경제일반 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 볼거리 실컷 구경 후 중문 맛집 들려보자 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 경제일반 상생단지 제주도 중문관광단지 볼거리 실컷 구경 후 중문 맛집 들려보자 기자명 김미영 기자 입력 2017.01.05 14:40 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 중문관광단지 볼거리 하면 대표적으로 생각나는 곳이 주상절리이다.주상절리는 산책하기에도 참 좋은곳이다. 바다와 나무가 어우러져 멋진 풍경을 만들고 아이들의 관심을 끌수 있는 모형물들도 많아서 한번쯤은 둘러보아도 정말 좋은곳이다.주상절리는 화산에서 불출한 용암이 바다와 만나 식는 과정에서 규칙적인 균열이 생긴 육각형모양의 기둥들을 말한다. 제주의 아름다운 절경을 볼수 있는 주상절리는 정말 멋진 곳이다. 중문관광단지 안에는 선인장을 비롯하여 세계 각지의 식물을 전시해 놓은 여미지식물원, 해양수족관과 돌고래·바다사자·펭귄 등의 묘기를 볼 수 있는 퍼시픽랜드, 제주도의 전통 가옥과 어민들의 생활상 등을 재현한 민속마을 등이 있다. 또 단지 계곡 위에는 상중하 3단으로 된 천제연폭포가 있으며, 천제연계곡을 가로질러 길이 128m의 아치형 철교 선임교가 놓여 있다. 이렇게 볼거리가 다양한 중문관광단지 구경후에는 중문 맛집 천제연토속음식점에 들려서 제주도에서 유명한 통갈치조림을 먹어 보는 것 도 좋다. 중문 맛집 천제연토속음식점에서는 통갈치조림 4인세트를 주문하면 통갈치조림, 전복돌솥밥2개, 전복뚝배기2개, 공깃밥2개가 나오며 버터전복구이를 추가로 주문하면 상다리가 부러질 정도로 푸짐하게 나온다.통갈치조림은 맵지 않고 조금 달달하기까지 해서 모든 연령대가 좋아할 맛이고, 특히 버터전복구이는 상당히 고소하고 씹는 식감이 매우 부드러워 좋았다. 많은 연예인들과 맛집 프로그램에서 촬영을 할 정도로 맛이 좋은 천제연토속음식점이다.중문관광단지를 실컷 구경하고 들리면 좋은 가게이다. 저작권자 © 금강일보 무단전재 및 재배포 금지 김미영 기자 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 [속보]4호선 지하철 시위, 4일 출근길 지연 고명환 와이프 임지은 프로필은? [오늘의 운세] 4일 띠별 나의 운세는? 시사 지역 문화·연예 01 [속보]4호선 지하철 시위, 4일 출근길 지연 02 유승민, 보수 차기 대권주자 1위... 범진보 이재명 독주[리처치뷰 여론조사] 03 '러시아 동원령' 안현수는? 04 대전·세종 집값 하락폭 전국 1·2위 다투는 중 05 충북 옥천에 첫 ‘e편한세상 퍼스트원’ 분양 06 여수 해상서 기름유출 사건 발생 07 [오늘날씨] 개천절 흐리고 비, 내일까지 수도권 최대 100mm 08 대전상의-민주당 ‘지역경제 활성화’ 간담회 09 이자 부담 느는데 중도상환도 어렵다 10 “고물가에 후원금도 줄었는데…” 11 공공요금 ‘더블인상’...시름하는 충청경제 12 군가 '멸공의 횃불' 왜 가사 바뀌었나? 13 국민 절반 ‘육사 충남 이전’ 찬성 14 [尹정부 첫 국감] 외통위·국방위 등서 文·尹 정권 격돌 예고 전체보기 01 [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 02 아산시, 배방 지역 공공기여 협약 체결 03 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 04 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 05 국학원, 단기4355년 개천절 기념, '한국인이 한국인답게' 경축 행사 개최 06 부여군, ‘백제 사비천도 페스타’ 선봬 07 천안시 2022 충남체전 종합 우승 ··· 역대 최고 성적 08 이명수 의원, 지방문화원 지원 강화 법 발의 09 제천시, 특정업체에 ‘일감몰아주기’ 의혹 논란 10 영동군, 도약과 발전을 위한 2023년 청사진 제시 11 보은군의회, 의원 발의 조례 2건 의결 12 영동군, 민선8기 첫 추경 역대 최대 7673억 원 확정 13 단양 도담정원, 2만㎡ 황화 코스모스 물결 장관 14 괴산유기농산업엑스포, 입장객 10만 명 돌파 전체보기 01 고명환 와이프 임지은 프로필은? 02 이천수 와이프 심하은 누구? 03 엄정화 올케 윤혜진, 사이좋은 모습 공개 04 송가인 최애 가수는 바이브 05 박수홍, 봉사활동 모습 공개 06 '조이 언급' 크러쉬 당황시킨 비비 07 구단주 허재의 '살벌한 욕설' 이유 08 '신혼' 손예진, 현빈과 달달한 모습 공개 09 임영웅과 데이트하는 영상? ‘사랑해 진짜’ 10 '수리남' 김민귀 "광신도 연기하려..." 11 설민석 2년만 방송 복귀, 대중들 반응은? 12 김용건 예비며느리 황보라, 차현우와 혼인신고 완료 13 박민영 재력가 열애설부터 친언니 사외이사 선임까지 14 구준엽♥서희원, “화장실 갈 때도 안아서 데려가” 전체보기 가장 빠른 충청뉴스 아산시, 배방 지역 공공기여 협약 체결 아산시 배방 공수 지역 개발사업자들이 총 1000억 원의 공공기여금을 통해 해당 지역의 교통환경을 개선을 돕게 된다.박경귀 시장은 지난달 30일 신도리코 공장 이전 부지 개발사업자... [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 스포츠 뉴스 천안시, 충남체육대회 종합 우승 차지 대전도시공사 펜싱팀 하태규 ‘금빛 찌르기’ [포토] 설동호 교육감 전국체전 출전 선수단 격려 ‘현대가(家)’ 리디아 고, 약혼자가 걱정해... [사진뉴스] LX 지역본부, 충남체육회에 전국체전 기부금 전달 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>1500만 제주관광 시대 '출발'...새해 첫 제주도 여행객은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 1500만 제주관광 시대 '출발'...새해 첫 제주도 여행객은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 1500만 제주관광 시대 '출발'...새해 첫 제주도 여행객은? 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.01.01 12:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 1500만 제주관광 시대를 맞이한 가운데, 2017년 정유년 새해 첫 관광객이 제주를 찾았다.바로 그 주인공은 국내선을 이용해 처음 입도한 정영희씨(64세, 인천)가족과 국제선은을 이용한 마혼와이씨(58세, 홍콩) 가족.이들은 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 2017년 정유년(丁酉年) 새해 첫날을 맞아 개최한 제주방문객 환영행사 행운의 주인공으로 선정돼 제주특산품 상품권, 꽃다발 등 푸짐한 기념품이 주어졌다.이날 제주도와 제주관광공사는 국내.국제여객터미널.성산포항 제주관광안내센터에서도 방문객을 대상으로 기념품(복주머니)을 제공하며 새해 첫 방문 환영메세지와 감사의 마음을 전달했다.관광협회 관계자는 "2017 새해 첫 입도객 환영행사를 시작으로, '도민체감형 新관광산업 생태계 조성'이라는 비전과 함께, 제주도, 관광협회, 관광행정기관과 관광업계가 유기적인 협업 관계를 통한 제주관광 질적성장 도약을 위해 전력을 기울이겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 일본과 교류 활발한 지역으로 꼽혀…관광객 유입은 과제 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 일본과 교류 활발한 지역으로 꼽혀…관광객 유입은 과제 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 정부 제주도, 일본과 교류 활발한 지역으로 꼽혀…관광객 유입은 과제 김동일 기자 승인 2017.01.15 15:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 외교부, ‘2016년 한일관계’ 연구보고서에 제주 거론수도권에 편중된 일본인 관광객 유치 방안 마련 과제 [제주일보=김동일 기자] 제주특별자치도가 동아시아문화도시, 우호협정 및 자매도시 협정 체결, 청소년 교류 등 일본과 다양한 교류를 벌이고 있는 지방자치단체로 나타났다.이 같은 교류 증진에도 불구하고 동아시아문화도시 사업인 경우 화제성이 부족한 데다 일본인 관광객의 수도권에 편중돼 있는 것으로 조사돼 실태 분석과 대책 마련이 시급하다는 지적이 나왔다.15일 외교부가 마련한 ‘2016년 한일관계’ 연구보고서에 따르면 제주도는 동아시아문화도시 지정은 물론 그동안 아오모리현, 이바라키현, 도쿄도, 효고현, 사가현 등과 자매·우호관계를 맺는 등 일본과 교류가 활발한 지역으로 꼽혔다.제주도의 경우 지난해 일본 나라시, 중구구 낭보시와 함께 2016년 동아시아문화도시로 선정된 데다 한중일 문화장관회의도 제주에서 열리는 등 문화분야 교류가 활발한 곳으로 나타났다. 또 제주도와 양 행정시의 우호협정 체결도 다른 지역보다 많은 것으로 조사됐다.그러나 이 같은 활발한 교류에 비해 문화예술 분야 화제성이 부족한 것은 물론 일본인들의 주요 관광지의 75%가 서울에 몰려 있어 일본인 관광객 지방 확산이 필요한 것으로 지적됐다. 제주의 경우 중국인들이 많이 찾고 있지만 일본인들은 그다지 많이 방문하지 않아 실태 분석과 대책 마련이 필요하다는 의견이 나왔다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도, 전국생활체육대축전은 관광과 연계한 대회 만든다 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 전국생활체육대축전은 관광과 연계한 대회 만든다 등록 2017.01.23 13:35:36 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 오는 6월8일부터 11일까지 제주시 종합경기장 주경기장에서 열리는 전국생활체육대축전은 44개 종목의 경기가 진행되고 전국에서 5만여명이 찾을 것으로 예상된다고 23일 밝혔다. 도는 개폐회식 행사를 위해 이 대회 예산 총 38억4000만원 중 홍보비용을 포함한 17억원을 들여 '생활속의 체육활동의 섬' 이미지를 연출하고 외형적 화려함보다는 공감과 화합의 공간이 창출될 수 있도록 할 계획이다. 도는 전국 전문업체를 대상으로 계약을 체결하기 위해 지난해 12월 10일부터 '2017 전국생활체육대축전' 종합기획·연출 대행업체 선정을 공모하고 있다. 도는 앞으로 손님맞이 환경, 교통, 숙박, 안전대책은 물론 문화연계 즐길거리, 관광연계 볼거리, 지역경제연계 살거리 등 체험형 프로그램을 발굴하고, 자원봉사자 운영 등 전 부서와 유관기관이 참여하는 구체적인 계획을 3월 중 수립하기로 했다. 도는 이번 대회를 스포츠 대회에만 치중하지 않고 전국에서 제주를 찾은 방문객들을 위해 다양한 볼거리와 즐길거리, 살거리 등이 있는 대회로 만들기 위해 준비 중이다. 이 대회의 엠블럼과 마스코트는 '자연과 사람이 공존하는 청정 제주'와 유네스코 인류 무형문화유산으로 선정된 제주해녀문화로 정해졌다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 기은 지속가능경영보고서, LACP 비전 어워즈 '대상' "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도,23~25일 해외 제주관광홍보사무소 워크숍 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도,23~25일 해외 제주관광홍보사무소 워크숍 (제주=뉴스1) 오미란 기자					| 2017-01-22 09:01 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 사진은 지난해 열린 ‘2016 해외제주관광홍보사무소 합동 워크숍'.© News1 제주도는 관광시장 다변화 방안을 모색하기 위해 23일부터 25일까지 제주도 일원에서 '2017년 해외 제주관광홍보사무소 합동 워크숍'을 개최한다고 22일 밝혔다.이번 워크숍에는 중국, 대만, 일본, 말레이시아, 베트남 등 해외 11개 지역 제주관광홍보사무소와 제주도, 제주관광공사, 제주도관광협회, 사단법인 제주컨벤션뷰로 마케팅 관계자들이 참석한다.이들 기관은 이번 워크숍을 통해 제주관광 질적 성장이 가시화될 수 있는 대안을 제시하고, 마케팅 방향을 설정하겠다는 계획이다.중국 관광시장에 대해서는 사드배치와 한한령(限韓令·한류 금지령) 등 대외적 위협요인과 저가단체관광을 고부가 개별·목적 관광으로 전환하기 위한 마케팅 계획을 논의할 예정이다.일본 관광시장 회복을 위해서는 공중파 TV 광고 등 제주의 이미지를 새롭게 구축하기 위한 홍보활동 계획을 구체화하고, 동남아·신흥시장 개척을 위해서는 신규 마케팅 거점 확보와 의료관광, 무슬림 관광객 유치 중심의 타킷 마케팅 활동 계획을 공유할 방침이다.이승찬 제주도 관광국장은 "이번 워크숍을 통해 제주 관광의 교두보를 마련할 것"이라며 "국내외 정치·경제적 위기에도 제주 관광산업이 흔들리지 않고 든든한 기초를 마련해 제주관광의 질적 성장을 유도하겠다"고 밝혔다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 '관광객 환경보전기여금 제도' 도입 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 '관광객 환경보전기여금 제도' 도입 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 '관광객 환경보전기여금 제도' 도입 추진 송고시간2017-01-20 14:00 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 전문가 워킹그룹 권고 (제주=연합뉴스) 김호천 기자 = 제주를 찾는 국내외 관광객에게 '환경보전기여금'을 부과하는 제도 도입이 추진된다. 제주도는 '제주 자연가치 보전과 관광문화 품격 향상을 위한 워킹그룹'이 도 전 지역에 대한 환경보전기여금 제도 도입을 위한 법 제도 개선 등을 담은 로드맵을 마련해 행정에서 적극적으로 추진하라는 행정권고안을 제시했다고 20일 밝혔다. 강경식 워킹그룹 부위원장은 "원인자 부담 원칙에 따라 국내외 관광객에게 환경보전을 위한 재원으로 쓸 소정의 기여금을 받아야 한다"는 취지라고 설명했다. 광고 제주 '크루즈 관광객 100만명' 환영행사 (제주=연합뉴스) 전지혜 기자 = 20일 제주항 국제여객터미널에서 '제주 크루즈 관광객 100만명 달성 환영행사'가 열린 가운데 터미널 입구에서 중국인들이 제주 감귤 비타민을 선물로 받고 있다. 2016.10.20 atoz@yna.co.kr 워킹그룹은 환경보전기여금 제도 도입에 앞서 우선하여 세계자연유산지구 등 특정 지역에 대한 입장료(관람료)를 도입하거나 현실화하라고 주문했다. 추가 검토가 필요한 사항으로 관광객 대상 제도 도입에 대한 의견을 수렴, 타당성 조사 및 비용의 적정성 검토를 요청했다. 환경보전기여금과 입장료(관람료)의 사용 용도를 명확히 해 관광객과 주민을 설득할 논리를 개발하도록 했다. 공영 관광지에 대한 입장료 징수와 입장료의 단계적인 현실화, 입장료(관람료) 수입 관련 특별회계, 기금 신설 또는 기금 개정 등을 검토하도록 했다. 도는 워킹그룹에서 제시한 행정권고안을 심도 있게 분석하고 검토해 추진할 계획이다. 도와 도의회 관계자, 도 내외 전문가 등 25명으로 구성된 워킹그룹은 지난해 7월 발족했다. 이후 현재까지 청정과 공존을 지향하는 제주로 도약하기 위한 로드맵으로 5개 주제를 선정하고 워크숍과 토론회 등을 열어 의견을 수렴했다. 지난해 10월 제주발전연구원이 도내 전문가 160명(남성 117명, 여성 43명)을 대상으로 시행한 '(가칭)환경보전기여금 등에 대한 전문가 인식조사' 결과 '제주 방문 관광객 대상 환경보전기여금 부과'에 93.8%인 150명이 찬성했다. 반대는 10명에 불과했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/01/20 14:00 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광시장 다변화 나섰다-국민일보 시사 시사 &gt; 전체기사 제주도, 외국인 관광시장 다변화 나섰다 사드 보복에 유커 발길 뚝… 日·동남아로 활로 모색 입력 : 2017-01-24 18:17 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 중국에 편중된 외국인 관광시장을 동남아와 일본 등으로 다변화하기 위한 새로운 활로 모색에 나섰다. 이는 중국 정부가 한국의 전세기 운항을 중단시키는 조치를 취함에 따라 올해 중국인 관광객 유치에 적신호가 켜지고 있기 때문이다. 제주도는 25일까지 제주웰컴센터 일원에서 해외 11개 지역 제주관광홍보사무소장(중국5· 대만1·일본3·말레이시아1·베트남1)과 도·제주관광공사·제주도관광협회·제주컨벤션뷰로 마케팅 관계자 30여명이 참가하는 합동 워크숍을 진행한다고 24일 밝혔다. 합동 워크숍은 중국 한한령(한류 콘텐츠 억제 정책), 사드영향 등 대외적 위협요인과 관광시장 여건변화에 대응하기 위한 현실적인 마케팅 방향을 설정하기 위해 마련됐다. 저가 단체관광을 고부가 개별·목적 관광으로 전환하기 위한 마케팅 전략이 본격 논의될 예정이다. 또 일본 관광객 유치 회복을 위해 제주의 이미지를 새롭게 구축하기 위한 공중파 TV 광고 등 다양한 홍보활동 계획도 제시된다. 관광업계의 마케팅분야 사업추진 계획 및 권역별 관광시장 동향·전망 공유, 주요 박람회·세일즈 마케팅 일정 등도 집중적으로 다뤄진다. 동남아·신흥시장 개척을 위한 신규 거점 확보와 의료관광, 무슬림 관광객 유치 중심의 타깃 마케팅 활동계획 등도 점검한다. 도 관계자는 “워크숍 결과를 토대로 제주관광의 질적 성장을 위한 관광객 체류기간 확대, 고부가가치 관광객 유치, 친환경 관광 콘텐츠 개발 등 체계적인 관광객 유치 전략을 수립하겠다”고 밝혔다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야”</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 관광객 불편사항 해소 종합상황실 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 설 연휴 관광객 불편사항 해소 종합상황실 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 설 연휴 관광객 불편사항 해소 종합상황실 운영 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.01.26 13:22 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 설 연휴기간 제주를 방문하는 관광객들의 불편을 해소하기 위해 행정시 및 유관기관 합동으로 관광대책 종합상황실을 설치해 운영한다고 26일 밝혔다.종합상황실은 제주국제공항, 국내.국제여객.크루즈터미널 등에서 운영된다. 관광안내 및 설 맞이 환영 분위기 조성과 관광불편신고 접수·안내 등을 할 예정이다.공항교통반은 렌터카 이용객 교통정보 제공, 교통불편사항 해소 지원 안내 그리고 공항내 심야 시간대 버스 및 택시 등을 지원하게 된다.제주관광공사, 제주도관광협회가 참여하는 항만크루즈반은 제주항 2부두, 7부두, 크루즈터미널 이용객에 대한 불편사항 해소 지원을 계획이다.제주관광종합홍보안내센터와 제주웰컴센터는 관광객 교통편·숙박 및 관광지 안내와 관광불편사항 접수 처리 등을 추진한다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[르포] 춘제 연휴가 코앞인데… 유커가 사라진 제주도 관광시장 : 100세시대의 동반자 브릿지경제 로그인 회원가입 검색창 닫기 전체 메뉴 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 l 비바100 피플 문화·연예 전체기사 Health(건강) Encore Career(일) Money(돈) Leisure(여가) Life(라이프) Education(교육) Welfare(복지서비스) 사설 칼럼 외부기고 비주얼 포토 카드뉴스 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 동영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 검색버튼 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 비바100 피플 문화·연예 검색창 닫기 전체기사ㅣ유통 ㅣ 식음료 · 주류 ㅣ 주거 · 생활 ㅣ 패션 · 뷰티 · 화장품 ㅣ 프렌차이즈 창업 ㅣ 중견 · 중소 · 벤처 현재위치 : 홈 &gt; 뉴스 &gt; 생활경제 &gt; 유통 [르포] 춘제 연휴가 코앞인데… 유커가 사라진 제주도 관광시장 입력 2017-01-25 17:44												 | 신문게재 2017-01-26 4면 연관검색어 제주 춘절 중국인 관광객 25일 오후 중국인 관광객이 많이 찾는 제주시 연동 바오젠거리 일대가 한산하다.(사진=박준호 기자) “정말 힘들다고 써줘. 그 많던 중국인들이 요새 통 보이질 않아. 불과 몇 달 전만 해도 중국인 관광객들로 득실댔는데 지금은 썰렁하다니까.”25일 오후 제주시 중앙지하상가에서 만난 수제구두점을 운영하는 상인 한모(54·여)씨는 기자에게 깊은 주름을 지어보였다. 중국 최대 명절인 춘제(春節) 연휴를 앞두고 제주도의 분위기가 심상치 않다. 제주국제공항이 한산하고 제주 시내의 면세점은 활기를 잃었다. 작년 이 맘 때쯤에는 중국인으로 왁자지껄했을 쇼핑거리도 쌀쌀해진 날씨처럼 차갑게 얼어붙었다. 25일 오후 방문한 제주시 중앙지하상가가 텅 비어있다.(사진=박준호 기자) 공항 및 항구와 가까워 작년까지만 해도 화장품, 의류를 구매하려는 중국인 관광객으로 붐비던 제주중앙지하상가도 춘제 대목이 코앞으로 다가왔지만 한적함만 감돌았다. 한 상인은 “예년보다 중국인이 한 70% 줄어든 것 같다”고 한탄했다. 지난해 중국 국경절(10월1일~7일) 연휴 때만 하더라도 제주를 찾은 중국인 관광객은 7만3000여명으로 전년보다 5.4% 증가했지만 석 달도 채 안돼서 상황이 급변했다. 중국 정부의 사드보복 조치에 따라 중국인 관광객을 실어 나르는 항공편이 크게 줄어들었기 때문이다. 다가오는 춘제 연휴(1월27일~2월2일)에 제주를 찾는 중국인 관광객은 16.5% 감소할 전망이다.  제주 용두암 주차장에 전세버스 3대만이 주차돼있다.(사진=박준호 기자) 평소 중국인 단체관광객으로 인산인해를 이루는 유명 관광지 용두암도 넓은 주차장에 전세버스 3대만이 전부일 정도로 썰렁했다. 제주시 연동에 위치한 바오젠거리도 상황은 마찬가지다. 중국인 관광 명소라는 명성이 무색할 정도로 중국인 관광객을 찾아보기 힘들었다. 바오젠거리 한 화장품매장 상인은 “여태까지는 춘제 연휴를 일주일 앞두고 추가 직원을 뽑을 정도로 바쁜 시기였지만 지금은 매출이 반토막났다”며 “크루즈를 통해 들어오는 단체여행객이 늘어났다고 하는데 우리 같은 소상공인들은 혜택이 전혀 없다. 불과 면세점이 5분 거리에 있는데 죄다 버스를 타고 면세점으로만 향한다”고 하소연했다.바오젠거리 양 옆에 위치한 롯데면세점과 신라면세점은 지난해보다 부쩍 줄어든 중국인 단체관광객의 자리를 ‘싼커(散客)’로 불리는 개별 관광객이 차지했다. 가족이나 친구 혹은 혼자서 면세점 쇼핑에 몰두하는 중국인 쇼핑객 모습이 눈에 띄었다. 제주 롯데면세점 주차장 직원은 “작년보다 중국인 단체관광객이 확실히 줄었다. 오늘 오전에도 크루즈 단체여행객이 타고 온 전세버스 2대가 전부였다. 이곳에 둘렀다가 관광객을 내려놓고 버스를 정차해놓는 주차장이 세 곳이 넘지만 요새는 택시를 타고 혼자 오는 관광객이 더 많다”고 말했다. 실제로 인근에 위치한 면세점 제 1주차장에는 전세버스 1대만이 정차돼 있었다.신애복 바오젠거리상인회 회장은 “중국에서 제주로 오는 항공편이 줄고 있는데다 크루즈 여객선은 입항시간이 보통 8시간 내외밖에 되지 않아 면세점만 갔다가 돌아가는 경우가 많다”며 “매장마다 매출이 50%, 크게는 70% 줄었다는 곳도 있다. 정부가 나서서 제주 관광업계를 살리기 위한 대책을 적극적으로 마련해줘야 하는데 그저 손만 놓고 있다”고 꼬집었다. 글·사진=박준호 기자 jun@viva100.com 기자의 다른기사보기 &gt; 관련기사 춘제 대목 앞두고 제주도 덮친 사드 냉기류…유커가 사라졌다 정부, 中 ‘사드 보복’에 국제법적 대응 이 기사에 댓글달기 댓글 접기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 온라인 핫클릭 ·누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?"·8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다"·‘그랜드 엑스페디션’ 정인석 프로듀서 “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요!”·"자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과"·은퇴 초반 철칙… 노후자금 수익률 높이고 인출은 줄여라·직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 스포츠 월드 ·KLPGA 투어 1인자 박민지, 여자 골프 세계 랭킹 16위·김주형, PGA 투어 슈라이너스 칠드런스 오픈 ‘노보기’ 우승…두 달 만에 통산 2승·김세영, LPGA 투어 메디힐 챔피언십 7위·‘1인자’ 박민지, KLPGA 투어 하이트진로 챔피언십서 연장전 끝에 우승·김영수, 코리안 투어 제네시스 챔피언십서 역전 우승…107번째 출전 만에 첫 승·김세영·강혜지, LPGA 메디힐 챔피언십 3라운드 공동 13위…‘톱 10’에 한국 선수 들지 못해 김규리, 완벽 옆태 아이즈원 출신 이채연, ‘허쉬 러쉬’ 첫 콘셉트 포토 공개…12일 솔로 데뷔 체리블렛 채린, ‘슈룹’ 출연 확정…김혜수 과거 시절 연기 정시아, ‘이츠 마이 라이프’ MC 발탁…“일상 속 정보 전달” YG엔터, 제니 사진 유출 관련 ‘법적 대응’…“경찰에 수사 의뢰” 기획시리즈 ESG 경영이 미래다 “순환경제가 탄소중립 현실적 해결 방안…신기술로 새시장 개척해야” KT&amp;G, 지구온도 낮추는 녹색경영… 지속가능한 생태계 키운다 이희연 KT&amp;G ESG기획팀장 "객관적 성과 측정… 이해관계자 소통 강화할 것" 人더컬처 8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다" 장동윤이 영화 '늑대사냥'에 미친 이유! 염정아에게 춤과 노래란? 맘 with 베이비 "자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과" 광명시의회 안성환 의장 “경력단절 없도록… 육아휴직 대체인력 지원 늘려야” "밤 오줌 못 가리는 아이, 실수해도 야단치지 마세요" 직장인 2막 직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 실패땐 복직 보장… 창업, 걱정 말고 도전하세요 농작물 재해 손해평가… 2차 합격률 20%대 '좁은문' 스타트업 "더 빠르고 정확하게"… 심정지 환자 소생률 높인다 컴투스 창업자의 새로운 도전… "해긴은 모두가 행복한 게임회사를 꿈꿉니다" "인테리어는 곧 공간에 대한 이해… 건축주 니즈 최선" 열정으로 사는 사람들 윈골드 류홍열·김탁종 대표 “金거래시장 틈새 발견… 변호사 둘이 일냈죠” "건설일용직도 모바일 매칭… 새벽 줄서기 없앴죠" 창업 생존율 확대…실습·실무 '창업교육' 나선 넥스트랩 김진태 대표 테크리포트 현존 최고 자물쇠 채워라!… 국내 이통사 '양자암호통신' 개발 경쟁 10분 이상 버텨라! 불에 강한 단열재 생산 불붙었다 K수소 무한 확장… 블루수소 만들고 UAM 띄운다 안종배 회장의 인공지능과 메타버스 미래세상 "세계가 주목하는 메타버스 리더, 누구나 될 수 있죠" 우리는 메타버스 시대에 살고 있다 메타버스, 미래 핵심기술 선도한다 스마트 라이프 ‘뉴 스페이스’ 시대 성큼… 제약·바이오도 우주 시장 ‘눈독’ "학습자 누구나 시험 합격때 수강료 100% 환급해드려요" "수하물 탑재 완료됐어요"…AI 챗봇이 다 알려드려요 많이본뉴스 최신뉴스 이시각 주요뉴스 코로나19 신규 확진자 1만5476명…사망자 91일만에 최소 코스피, 장 초반 2%대 하락…2200선 붕괴 [대통령의 한마디] "담대한 구상, 비핵화 이끌어 내기에 유효 할 것" 글로벌 경제위기에 국민연금 올해 상반기 적자 77조원… “투자다변화 전략 필요” 한경연 “법인세율 3.3%p 인하하면 GDP 10년간 연평균 1.4%↑” 3분기 단기사채 자금조달 250.9조…전년比 22.2%↓ 창립 70주년 맞은 한화…김승연 회장 "지속적 혁신" 주문 올해 아울렛서 화재 세 차례…노동부, 대규모 유통업체 불시점검 [오늘의 1면] 아파트 매매가·전세가 급락세··· 부동산 지표 '사상 최악' 러시아 미사일공습에 삼성 입주건물 피해…삼성 “직접 피격 아냐” TODAY TOPIC 1 2 공효진·케빈오, 12일 미국 뉴욕서 비공개 결혼식 “변명의 여지 없어” 신혜성, 음주운전 사과…차량 절도는 아냐 반환점 돈 영화제, 폐막까지 D-3… 올해 부국제는 어땠나? 선우은숙, 4세 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” '죽음 권하는 사회', 영화 '플랜75'가 주는 리얼함 8년만에 BIFF 찾은 진가신 "영화감독이 아닌 삶은 상상할 수 없다" “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요” 누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?" 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 영상 영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT·산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 회사소개 | 조직도 | 찾아오시는길 | 회원약관 | 개인정보취급방침 | 이메일무단수집거부 | 신문구독신청 | 저작권 규약 | 청소년보호정책 | 원격지원 | 고충처리인 | 윤리강령 및 기자준칙 서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관) / 인터넷신문등록번호 : 서울,아03028 / 등록일자 : 2014년 3월 3일 / 제호 : 브릿지경제신문 / 발행인·편집인 : 김현수 / 청소년보호책임자 : 조진래 / TEL : 02-2070-0200 l FAX : 0303)0952-0200 / 한국신문협회, 한국온라인신문협회 회원사 / 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. / 인터넷신문위원회 자율심의 준수서약사 Copyright by Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>문혁기 제주맥주 대표 "제주도에 수제맥주 관광명소 만들것" - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 문혁기 제주맥주 대표 "제주도에 수제맥주 관광명소 만들것" 상반기 양조장 완공땐 생산규모 국내 1위 신수현 기자 입력 : 2017.01.20 16:24:32 최근 '핫플레이스'로 부상한 맥주 바(bar) 이태원 브루클린 팝업스토어. 노란색 페인트로 칠해진 외관에 중세시대 느낌의 인테리어로 꾸며져 유명세를 타고 있다. 지난해 말까지만 한시적으로 영업할 예정이었으나 찾는 이들이 많아 기간을 조금 연장했다. 크래프트 맥주 수출 세계 1위인 미국 '브루클린 브루어리'의 맥주를 즐길 수 있도록 팝업스토어를 기획한 사람은 문혁기 제주맥주 대표다. 제주맥주는 브루클린 브루어리와 손잡고 연간 최대 2000만ℓ 생산을 목표로 제주 금능농공단지에 양조시설을 건설 중이다. 이 시설이 상반기 완공되면 제주맥주는 국내 크래프트 맥주 생산 규모 1위 업체로 도약한다. 크래프트 맥주는 대기업이 아닌 개인이나 소규모 양조장이 자체 개발한 제조법으로 만든 맥주로 수제 맥주라고도 불린다. 문 대표와 크래프트 맥주와의 인연은 2009년으로 거슬러 올라간다. "외식사업을 하던 당시 해외 지점을 내려고 출장길에 올랐다가 운명이 바뀌었습니다. 미국에서 크래프트 맥주를 처음 맛봤는데 지금까지 한 번도 느껴 보지 못한 강렬한 맛이었습니다. 외식사업을 접고 한국에 크래프트 맥주를 들여가야겠다는 생각뿐이었습니다." 문 대표는 외식사업체를 매각하고 아예 미국에 눌러앉았다. 미국 맥주시장을 철저히 공부하면서 내공을 다진 뒤 2012년 12월 브루클린과 접촉했다. 문 대표는 "브루클린 브루어리는 30년간 미국 크래프트 시장을 견인해온 시장 점유율 1위 업체인 데다 세계 약 30개국에 수출하는 등 해외 네트워크도 탄탄해 협업을 제안했다"고 설명했다. 브루클린 브루어리와 공동 양조장 건립에 합의했지만 문 대표는 국내 맥주시장 파악을 위해 브루클린 맥주 수입·판매부터 시작했다. 대학생 때부터 사업가를 꿈꿨던 그는 2000년대 초반 우연히 신문에서 화장실 살균소독 전문업체에 관한 기사를 접한 후 '바로 이 사업이다'라며 무릎을 쳤다. 문 대표는 곧장 미국 스위셔인터내셔널에 연락해 한국법인을 내게 해달라고 설득하고 또 설득했다. 그의 열정에 감동한 스위셔인터내셔널은 그에게 한국 사업권을 내줬다. 문 대표는 "2000년대 초반 한국은 패밀리레스토랑이 붐을 이루던 시기였는데 외식업체 매장 1000개 이상을 관리할 만큼 사업이 번창했다"고 말했다. 외식업체 대표들과의 만남이 잦아지면서 직접 외식업에 뛰어들고 싶어진 그는 하던 사업을 정리하고 2006년 외식업자로 변신했다. 문 대표는 세 번째 도전인 크래프트 맥주사업에도 자신감을 내비쳤다. 그는 "제주도에 관광 인프라시설 등 하드웨어 구색은 어느 정도 갖춰졌지만 먹거리 등 소프트웨어는 여전히 부족하다"며 "남녀노소 누구나 제주맥주 양조장에서 즐거운 시간을 보낼 수 있는 콘텐츠를 만들어 관광지처럼 개발할 것"이라고 포부를 밝혔다. 국내 맥주시장이 이미 성숙 단계로 접어들었지만 크래프트 맥주시장 전망은 아직 밝다는 게 그의 생각이다. 그는 "1988년 와인시장이 개방되면서 폭발적으로 성장했는데 지금의 크래프트 맥주시장이 당시와 비슷하다"며 "특색 있는 맥주를 찾는 소비자들이 많아지면서 크래프트 맥주시장은 5년 후쯤 2000억원 수준까지 커질 것"이라고 전망했다. 문 대표의 궁극적인 목표는 해외 시장 공략이다. "세계 맥주시장에서 한국 맥주의 위상을 넓히고 인정받을 수 있는 맥주회사로 발돋움하겠습니다." [신수현 기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #문혁기 #제주맥주#수제맥주 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 37분"나도 내 집 없는데"…외국인 국내 아파트 3만채 매입   1시간 34분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   19시간 4분감사원 국감두고 여야 기싸움…10분만에 '정회'   1시간 27분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 문혁기 제주맥주 대표 "제주도에 수제맥주 관광명소 만들것" - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>[주말여행] 겨울 수확하기 좋은 농촌관광코스 9선, 경기도부터 제주도까지 전국 곳곳 겨울 여행 &lt; 일반 &lt; 기사 &lt; Life &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 12:20 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 9 제9회 한국와인대상 품평회 성료, “한국와인, 이제는 세계로 나아갈 때” 10 프리미엄 캔와인 '웨스트와일더', 안정환 &amp; 이혜원 부부와 콜라보한 스페셜 에디션 선보여 더보기 본문영역 이전 기사보기 다음 기사보기 [주말여행] 겨울 수확하기 좋은 농촌관광코스 9선, 경기도부터 제주도까지 전국 곳곳 겨울 여행 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Life 기사 기자명 전은희 기자 입력 2017.01.27 12:59 [주말여행] 겨울 수확하기 좋은 농촌관광코스 9선, 경기도부터 제주도까지 전국 곳곳 겨울 여행 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 농림축산식품부(이하 ‘농식품부’)와 한국농어촌공사는 추운 겨울, 농촌의 청정한 자연환경 속에서 새콤달콤한 과일과 겨울농산물을 수확 할 수 있는 ‘겨울 수확하기 좋은 농촌관광코스 9선’을 선정 발표하였다.이번에 9선으로 선정된 농촌관광코스는 아름다운 경관을 가진 명소, 겨울축제, 문화·예술체험, 안보관광지, 온천, 전망대, 동굴, 테마·예술공원, 목장, 전시관(박물관, 미술관 등), 역사유적지 등이 포함되었으며, 지자체 및 농촌체험휴양마을협의회 등의 추천을 받아 전문가(관광․홍보 등) 심사를 거쳐 선정되었다.이번에 선정된 “겨울 수확하기 좋은 농촌관광코스 9선”은 우리 농촌에서 친환경적으로 재배한 새콤달콤한 딸기, 돼지감자, 고로쇠 수액 등 다양한 지역별 겨울철 농산물 수확 및 가공 체험을 즐기기 위하여 도시에서 느낄 수 없는 다채롭고 매력적인 농촌지역의 관광자원을 연계한 명소들로 구성되어 있다.1. 경기도 양평군 겨울수확하기 좋은 「별내마을」 농촌관광코스두물머리물래길→별내마을→더토이장난감전시관→제로제카페 ▲ 별내마을과 더토이장난감전시관 &lt;사진=웰촌(좌), 양평여행(우)&gt;[별내마을 소개]* 추천 체험 거리 : 딸기수확체험, 돈까스만들기, 둘기름짜기, 화단지만들기* 먹거리 : 딸기돈까스* 연계관광지 : 두물머리물래길, 더토이장난감전시관, 제로제카페* 소재지 : 경기도 양평군 용문면 월성1길 61 (삼성리 654-1 ) * 예약 및 홈페이지 : 031-774-5427 / http://www.ypstar.co.kr2. 강원도 양구군 겨울수확하기 좋은 「학마을·지게마을」 농촌관광코스학마을(꽃수확)→두타연(눈길걷기행사-2월축제)→지게마을(딸기체험)→제4땅굴 ▲ 학마을과 지게마을 &lt;사진=학마을(좌), 지게마을(우)&gt;[학마을 소개]* 추천 체험 거리 : 꽃수확체험, 시래기요리체험, 짚풀공예, 풍등놀이* 먹거리 : 아로니아밥상, 삼지구엽초정식* 연계관광지 : 두타연, 지게마을, 제4땅굴* 소재지 : 강원도 양구군 양구읍 학안로 159-45 학조리 마을회관* 예약 및 홈페이지 : 033-481-6200 / http://hakjori.tistory.com[지게마을 소개]* 추천체험거리 : 딸기수확, 만두만들기, 컵만들기, 지게만들기, 목공예체험 등* 먹거리 : 시래기정식* 연계관광지 : 두타연, 학마을, 제4땅굴* 소재지 : 강원도 양구군 동면 팔랑리 1185-1* 예약 및 홈페이지 : 033-481-8615 / http://www.palrang.co.kr3. 충청북도 영동군 겨울수확하기 좋은 「영동금강모치마을」 농촌관광코스천태산→영국사→영동금강모치마을→강선대→영동국악체험촌→와인코리아 ▲ 강선대와 와인코리아 &lt;사진=영동문화관광(좌), 웰촌(우)&gt;[영동금강모치마을 소개]* 추천 체험 거리 : 블루베리잼 만들기, 짚풀공예, 한지공예, 자연물공예, 천연염색체험* 먹거리 : 시골밥상, 돼지고기 두루치기 및 수육, 닭백숙* 연계관광지 : 천태산, 영국사, 강선대, 영동국악체험촌, 와인코리아* 소재지 : 충북 영동군 학산면 모리 1길 38 영동금강모치마을* 예약 및 홈페이지 : 043-744-4488 / http://mochi.go2vil.org4. 충청남도 논산시 겨울수확하기 좋은 「딸기마을」 농촌관광코스탑정호→백제군사박물관→관촉사→박범신의 생가→딸기마을→명재고택 ▲ 딸기마을과 탑정호 &lt;사진=딸기마을(좌), 논산시청(우)&gt;[딸기마을 소개]* 추천 체험 거리 : 딸기수확, 딸기잼만들기, 딸기비누만들기, 딸기 떡만들기 등* 먹거리 : 딸기고추장비빔밥* 연계관광지 : 탑정호, 백제군사박물관, 관촉사, 박범신의 생가, 명재고택* 소재지 : 충남 논산시 광석면 사월리 439-1* 예약 및 홈페이지 : 041-734-0495 / http://딸기아줌마.com5. 전라북도 부안군 겨울수확하기 좋은 「구름호수마을·우리밀마을」 농촌관광코스.구름호수마을→내소사→곰소항→우리밀마을→청자박물관 ▲ 구름호수마을과 우리밀마을 &lt;사진=구름호수마을(좌), 우리밀마을(우)&gt;[구름호수마을 소개]* 추천 체험 거리 : 돼지감자수확체험, 울금염색체험, 울금소금만들기* 먹거리 : 인근식당이용* 연계관광지 : 내소사, 곰소항, 우리밀마을, 청자박물관* 소재지 : 전라북도 부안군 진서면 운호길 29 구름호수정보화마을* 예약 및 홈페이지 : 063-584-7366 / http://unho.invil.org[우리밀마을 소개]* 추천 체험 거리 : 도예체험, 오디소금만들기, 손두부만들기. 손 칼국수·수제비 만들기* 먹거리 : 손두부정식, 칼국수, 수제비* 연계관광지 : 내소사, 곰소항, 구름호수마을, 청자박물관* 소재지 : 전라북도 부안군 보안면 반계로15* 예약 및 홈페이지 : 063-581-9445 / www.woo-dong.co.kr6. 전라남도 광양시 겨울수확하기 좋은 「백학동마을」 농촌관광코스매천황현생가→광양역사박물관→구봉산 전망대→윤동주유고보존 정병욱가옥→백학동마을 ▲ 백학동마을과 매천황현생가 &lt;사진=백학동마을(좌), 광양시청(우)&gt;[백학동마을 소개]* 추천 체험 거리 : 고로쇠체험, 천연화장품만들기, 천연비누만들기, 분재체험 등* 먹거리 : 닭숯불구이, 닭백숙, 참숯바베큐 등* 연계관광지 : 매천황현생가, 광양역사박물관, 구봉산전망대, 윤동주유고보존 정병욱가옥 등* 소재지 : 전남 광양시 진상면 성지로 2* 예약 및 홈페이지 : 061-772-8820 / http://www.baekhakdong.com7. 경상북도 고령군 겨울수확하기 좋은 「개실마을」 농촌관광코스개실마을→미니멀동물원→대가야박물관→대가야테마파크→대가야미트캠프→우륵박물관 ▲ 개실마을과 대가야미트캠프 모습 &lt;사진=개실마을(좌), 대가야미트캠프(우)&gt;[개실마을 소개]* 추천 체험 거리 : 딸기수확체험, 엿 만들기, 인절미 만들기* 먹거리 : 시골밥상, 돼지고기두루치기, 개실진찬* 연계관광지 : 미니멀동물원, 대가야박물관, 대가야테마파크, 대가야미트캠프, 우륵박물관* 소재지 : 경상북도 고령군 쌍림면 개실1길 29* 예약 및 홈페이지 : 054-956-4022 / http://www.gaesil.net8. 경상남도 거제시 겨울수확하기 좋은 「삼거동농촌체험휴양마을」 농촌관광코스삼거동 농촌체험휴양마을(고로쇠 채취)→계도 어촌체험휴양마을바다낚시체험 ▲ 삼거동 농촌체험유향마을과 계도어촌체험휴양마을 모습 &lt;사진=웰촌(좌), 계도어촌체험휴양마을(우)&gt;[삼거동농촌체험휴양마을 소개]* 추천 체험 거리 : 고로쇠체험, 강정만들기, 떡메치기, 표고버섯 소세지 만들기, 표고버섯영양갱 만들기* 먹거리 : 추억의도시락, 표고버섯정식* 연계관광지 : 계도어촌체험휴양마을* 소재지 : 경상남도 거제시 거제중앙로 1286(삼거동 321-4번지)* 예약 및 홈페이지 : 055-637-7475 / http://www.skvil.co.kr9. 제주특별자치도 제주시 겨울수확하기 좋은 「저지마을」 농촌관광코스저지마을→저지오름→저지문화예술인마을→제주현대미술관→환상숲곶자왈→생각하는정원 ▲ 저지마을과 제주현대미술관 &lt;사진=저지마을(좌), 제주특별자치도청(우)&gt;[저지마을 소개]* 추천 체험 거리 : 딸기수확체험, 쿠키체험, 비누만들기* 먹거리 : 인근식당이용* 연계관광지 : 저지오름, 제주현대미술관, 환상숲곶자왈, 생각하는정원* 소재지 : 제주특별자치도 제주시 한경면 중간간서로 3675* 예약 및 홈페이지 : 064-773-1948 / http://jeoji.invil.org소믈리에타임즈 전은희기자 stpress@sommeliertimes.com 전은희 기자 cnjwow@sommeliertimes.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 [주말여행] 설 이벤트 가득한 서울시 전통시장으로 떠나보자! 24개구 131개 시장 리스트 공개 [주말여행] 서울시 21개 명소에서 맞이하는 새해일출, 일출 예정 시각 오전 7시 47분 [주말여행] 데이트 코스로도 딱! 홍대로 떠나는 이색 만화 여행, 국내최대만화서점 '북새통', 볼빨간사춘기의 좋다고말해 MV 촬영장소 만화카페 '즐거운 작당', 귀여운 좌식 만화카페 '딩굴딩굴 알타미라' [주말여행] '경기양평 수미마을', '김천 옛날쏨씨마을'로 겨울 여행 떠나보자 [주말여행] ‘단풍 절정’ 서울둘레길, 가장 멋진 코스는 어디? [주말여행] 천혜의 자연 풍광이 더욱 빛을 발하는 계절, 아침고요수목원으로 가보자! 최신뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 현업에서 활동중인 소믈리에들 모습 포토뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 인기뉴스 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 오늘의 추천 [오늘의 추천] 션 태커리 오리온 1997 "와인메이커로서 나의 유일한 목적은 즐거움을 만드는 것" [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" 오스트리아 와인 업계, 2022 빈티지 “수확량은 적지만 훌륭한 품질의 포도 예상” 2022 월드 베스트 바, '바르셀로나 파라디소(Paradiso)' 1위 차지 행사/EVENT 시음회 이탈리안 이노베이션 Italian Innovation 10월 27일 PM 7시 ~ 9시, 에프터 나인 앤 와인 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [금주의 주류 신상] 10월 첫째주 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 론칭 및 프로모션 기사 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 호주 와인 윈즈(Wynns), 페어링을 위한 미디움 바디 와인 4종 국내 론칭 [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 230년 역사의 프랑스 샴페인 명가, '슈를랭(Champagne Cheurlin)' 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 서귀포 중문여행 향토음식의 진수를 맛보자 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 종합 제주도 중문관광단지 맛집 서귀포 중문여행 향토음식의 진수를 맛보자 박은선 기자 silver@betanews.net 기사 입력 : 2017-01-24 15:38:48 제주를 대표하는 관광지 중문 관광단지는 천제연폭포.선임교.여미지식물원.주상절리.중문색달 해수욕장.별내린 전망대.플래이 케이팝.베릿내 생태공원.베릿네오름.달빛걷기공원.존모살해변.갯깍주상절리등 명소가 많기로 유명하지만 박물관 천국이라 불릴 만큼 다양한 테마로 꾸며진 박물관들이 즐비하다. 아이들이 좋아하는 테디베어 뮤지엄.외관부터 독특한 믿거나말거나 박물관,아프리카 문화를 엿볼 수 있는 아프리카 박물관등을 체험보는것도 중문 관광단지의 매력이라 할수 있을 것이다.특히 중문관광단지 부근, 천제교(天帝橋) 아래쪽에 상 ·중 ·하의 3단 폭포로 이어져 있는 천제연 제1폭포는 길이 22 m, 수심 21 m의 소를 이루며, 이 물이 흘러내려 다시 제2 ·제3의 폭포를 만든다. 폭포의 양안 일대에는 난대림지대가 형성되어 있어, 한국에서는 희귀식물인 송엽란(松葉蘭) ·담팔수(膽八樹) 등이 자생하며, 그 밖에도 여러 가지 상록수와 덩굴식물 ·관목류가 무성하게 어우러져 있다. 이 난대림지대를 보호하기 위하여 천연기념물 제378호로 지정하였고, 특히 이 계곡의 담팔수는 지방기념물 제14호로 지정되어 있다. 천제연폭포의 탐방로를 구경하고나면 출출해진 시장기를 채워줄 맛집을 찾기마련. 제주 향토음식점으로 1박2일 등 여러 방송에 소개된 제주산 전복과 제주산 농산물을 사용한다는 ‘가람돌솥밥’은 전복회, 전복, 성게, 오분작, 해물 돌솥밥, 전복죽, 해물뚝배기, 갈치조림, 제주 옥돔구이 등이 있으며 전복, 성게, 오분작 2, 3, 4인 상차림 세트 메뉴가 있다. 방송에 집중 조명을 받은 제주도 중문관광 단지 맛집‘가람돌솥밥’의 오분작돌솥밥은 전복을 얇게 슬라이스 친뒤 돌솥밥에 얹어 익혀 나오는데 마가린과 간장양념장으로 간을 맞춰 비벼먹고 돌솥에 물을 부어 누룽지를 만들어 숭늉까지 즐길수 있어 인기메뉴로 자리잡았다는 관계자의 말이다. ​제주 정취가 물씬 풍기는 중문관광단지 맛집‘가람 돌솥밥’은 입식 테이블석과 좌식 테이블이 준비되어 있어 편안하게 식사를 즐길수 있으며, 넓은 주차장을 확보하고 있어 주차가 용이하다.‘가람돌솥밥’에서 식사를 마친 고객에게는 인근 법환마을 올레 7코스 해안도로가에 위치한 범섬이 보이는 이국적고 모던한 콘셉의 ‘ 까페 가배’ 이용시 할인의 혜택도 주어진다. 한편,서귀포와 인접해 있어 서귀포 맛집으로도 검색이 가능한 중문맛집 ‘가람 돌솥밥’은 부담없는 가격으로 아침식사가 가능하며,제주도 중문관광 단지 여행을 계획하고 있다면 18년 전통 ‘가람 돌솥밥’을 찾아 제주 향토음식의 진수를 느껴보는건 어떨까 한다. -맛집 칼럼니스트  김  규한- 베타뉴스 박은선 기자 (silver@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 종합 &gt;&gt; 도서 교육 연예스포츠 인사 사회 종합 정치 생활문화 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
+  </si>
+  <si>
+    <t>㈜백령여행사, 백령 어르신 모시고 제주도 2박 3일 효도관광 &lt; 인천 &lt; 사람과 사람 &lt; 기사본문 - 기호일보 - 아침을 여는 신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체기사 포토뉴스 인기기사 2022-10-11 (화) 로그인 회원가입 facebook youtube rss 뉴스 정치 경제 사회 문화 교육 특집 오피니언 사설 서해안 금요논단 기호포럼 월요프리즘 인천 경기 지역 스포츠 야구 축구 골프 농구/배구 오늘의경기 사람과 사람 인천 경기 새얼굴 지역 안테나 인사 부고 결혼 기호경제 기호TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 ㈜백령여행사, 백령 어르신 모시고 제주도 2박 3일 효도관광 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람과 사람 인천 ㈜백령여행사, 백령 어르신 모시고 제주도 2박 3일 효도관광 기자명 배종진 기자 입력 2017.01.18 지면 15면 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 인천시 옹진군 백령도에 살고 있는 어르신 26명이 17∼19일까지 2박 3일 일정으로 제주도를 찾아 즐거운 여행을 즐기고 있다. ㈜백령여행사는 11년 동안 지역 어르신들을 위해 매년 제주도 무료 효도관광을 제공하고 있으며, 올해도 어르신들을 모시고 나들이에 나섰다고 17일 밝혔다. 최대정 대표는 "아름다운 섬 백령도에서 여행사를 운영하고 있는 만큼 작게나마 지역을 위한 사회환원사업의 일환으로 평소 여행할 기회가 없는 어르신들에게 위로와 기쁨을 안겨주고 공경과 사랑의 마음을 전하는 기회가 돼 뜻 깊다"고 전했다. 이번 효도관광에는 제이디건설, 해송여행사, 피아이전기, 이팔중기, 나나렌터카, 서울우유 등 지역 내 업체들의 따뜻한 관심과 후원도 이어졌다. 배종진 기자 jongjb@kihoilbo.co.kr 기호일보 - 아침을 여는 신문, KIHOILBO 배종진 기자 jongjb@kihoilbo.co.kr 다른기사 보기 저작권자 © 기호일보 - 아침을 여는 신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 신천지예수교 이만희 총회장 ‘수장절의 참 의미’ 성경 세미나 눈길 수원화성문화제 3년 만에 팡파르 이민근 안산시장, ‘상록구 해양동’ 안산대표 랜드마크로 발전계획 밝혀 구리한강시민공원서 10일 제37회 시민의 날 행사 개최 병가 내고 룰루랄라 캠핑 道 공무직원 중징계 조치 진단과 처방 화성 향남 제약회사 공장서 폭발로 화재 신천지예수교 이만희 총회장 ‘수장절의 참 의미’ 성경 세미나 눈길 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 시도지사들 "지자체서 부단체장 직접 지명 권한 달라" 인천e음 새 운영대행사 이달 말 공모 정부發 수도권 규제법이 야속 인천 ‘뉴 홍콩시티’ 타격 우려 ‘깡통전세’ 사기 고양 탄현서만 247억 道 2회 추경예산 임시회 처리 불발 인천시-3개 기초단체 행정체제 개편 합심 최신뉴스 자치단체장 고유 사업 떠맡아… 재정 관리 나몰라라 빚만 초래 NC 제압한 수원 kt위즈 道 추경안 원포인트 임시회서 처리 시도지사들 "지자체서 부단체장 직접 지명 권한 달라" 시정 혁신 ‘예열 끝’ 인천e음 등 현안사업 개선 ‘밑줄 쫙’ 오늘의 포토 NC 제압한 수원 kt위즈 흥 넘치는 사자춤 대형마트 쉬는 날 전통시장은 북적 우리가 만든 월병 어때요 인기뉴스 1 ‘제25회 산정호수 명성산 억새꽃 축제’ 오는 31일까지 펼쳐진다 2 하남시, 행정고시 최연소 합격 윤희수씨 명예 공무원 위촉 3 여주고 3학년 장동하, ‘2022 APP WORLD TOUR BUSAN SUP OPEN’서 종합우승 4 ‘제27회 이천시민의 날’ 체육대회 종합 1위 1부 증포동· 2부 1위 백사면 각각 차지 5 시흥시, 16개국 글로벌 청소년 2022 해외교류도시축전 열려 6 부천시, 하산 엘 코우리 ‘온세미 코리아 회장’ 명예시민 선정 7 2022 코리아가든쇼 대상에 이소원 작가 ‘Intermission’ 선정 8 인천 강화군, 밥맛 좋고 병충해 강한 최고품질 강화섬쌀 ‘나들미’ 육성 9 구리시, 11월말까지 5개 초교 어린이보호구역 내 시설물 개선 추진 10 인천 동구, 일자리박람회 참여 대상 사전 신청 기호일보 - 아침을 여는 신문 본사 : 인천광역시 남동구 미래로32 비전타워 14층 전화 : 총무국 032-761-0007~8   편집국 032-761-0004~6  디지털뉴스부 032-761-0009 팩스 : 032-761-0015 경기본사 : 경기도 수원시 팔달구 경수대로 464 (기아자동차 빌딩 4층) 전화 : 031-898-6767~8 팩스 : 031-898-6769 경기북부본사 : 경기도 의정부시 청사로 5번길 8-7 11층 1102호 전화 : 031-872-2990 팩스 : 031-872-2991 등록번호 : 인천 아01548 등록일 : 2021-07-16 발행인 : 서강훈 편집인 : 한창원 기호일보 - 아침을 여는 신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 기호일보 - 아침을 여는 신문. All rights reserved. mail to webmaster@kihoilbo.co.kr 윤리강령 독자위원회 사내게시판 개인정보처리방침 청소년보호정책 이메일무단수집거부 RSS 회사소개 인사말 찾아오시는길 조직 및 연락처 고객센터 기사제보 구독신청 광고문의 불편신고 제휴문의 저작권문의 위로 전체메뉴 전체기사 정치 전체 중앙정치 지역정치 자치/행정 2022 대선 여의도중계탑 대통령실 열린의정 안녕!특례시 6·1지방선거 4·15 총선-인천 4·15 총선-경기 포토뉴스 경제 전체 인천 경기 공항/항만 부동산 유통 경제자유구역 경제일반 포토뉴스 금주의 LOTTO 스타트업 비대면 서비스 사회 전체 인천 경기 사건사고 풀피리 보건/의료 포토뉴스 당신이 있어 행복한 세상 인천과 함께한 당신을 기업합니다 메디컬 칼럼 사랑의 온도 문화 전체 전시공연 문화일반 영화 도서 인물 김진형의 숨은영화찾기 베스트셀러 신간 안내 금주의 핫 무비 영화공간 주안 교육 전체 인천 경기 2021 인천미래교육 지역 전체 경기남부 경기북부 기호플라자 스포츠 전체 야구 축구 골프 농구/배구 스포츠일반 아시안게임 스포츠포토 오늘의경기 전국체전 올림픽 코리아오픈 탁구대회 레저/연예 전체 방송 음악 영화 연예계 핫이슈 종합 전체 사고 알림 본사손님 오피니언 전체 사설 서해안 구월동에서 금요논단 기호포럼 월요프리즘 漢字成語 손자병법에서 오늘을 읽는다 칼럼 교육칼럼 의정칼럼 복지칼럼 데스크 칼럼 인천아카데미 등대 동우회 광장 청춘어람 김필수 자동차 세상 두 姜의 역사산책 원현린 칼럼 신미송의 틈세 힐링토피아 자치플라자 이선신의 아침노크 장순휘 국방토크 윤명철의 ‘종횡무진’ 경제 칼럼 韓中日 삼국지 환경칼럼 생활 속 법무상담 최원영의 행복이야기 문화칼럼 융합비즈니스 코너 강석승의 북한 평설(評說) 정종민 칼럼 ESG와 녹색경영 김준우 칼럼 이상순의 음악이 있는 삶 특별기고 기자의눈 時評 독자투고 사람과 사람 전체 인천 경기 새얼굴 인사 부고 결혼 기호경제 만평 특집 전체 기획특집 7대륙 최고봉 오르다 이슈&amp;인물 설 특집 신년특집 지령 8000호 창간 34주년 차 한잔 합시다 남양주, 한강문명의 시원을 찾다 학생이 행복한 경기교육 경기도 우수여성기업 인천노포 백년가게 남양주,그린으로 달리다 ESG와 만나다 우리 고장 명물 지금 우리 학교는 청년, 예술하다 본사행사 전체 어린이날 대축제 수원화성 그림그리기대회 봄사랑 가족축제 전국바둑대회 미래도시그리기대회 통일염원 문화예술대회 가족사랑 걷기축제 중국의날 문화축제 송년 제야의 밤 문화축제 자선골프대회 참여성경제인 대상 3·1절 단축마라톤대회 K-POP 댄스경연대회 기호 참일꾼상 고양시 장애청소년 어울림 페스티벌 제1회 보람상조배 탁구대회 친환경 자전거 베스티벌 어린이 합창대회 코리아맨 송도대회 2020 인천소상공인 힘내라 기호자치 의정대상 지난연재 전체 경제인물 주식 유망기업을찾아 건강칼럼 우리동네최고 NGO를찾아서 만나고싶었습니다 미디어ㆍ오락 영화ㆍ책 산책 우리학교 짱 Week&amp;Do 정가 미니보고 인천의 최초.최고 춘추관25시 윤영자의 세무에센스 한국最初 인천最古 주말매거진 Hot &amp; Issue 연재 전체 포토 슬라이드 포토뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회, '제주관광 발전 협의 간담회' 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도의회, '제주관광 발전 협의 간담회' 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도의회, '제주관광 발전 협의 간담회' 개최 이승현 기자 승인 2017.01.23 17:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 문화관광스포츠위원회, 제주도관광협회 현장 애로 사항 청취 [제주일보=이승현 기자] 제주특별자치도의회 문화관광스포츠위원회(위원장 김희현)는 23일 제주웰컴센터에서 제주특별자치도관광협회(회장 김영진) 분과위원장과 임원 등이 참석한 가운데 도내 관광분야 현장의 애로사항과 건의사항을 듣고 정책에 반영하기 위한 ‘제주관광 발전 협의 간담회’를 개최했다.이번 간담회에 참여한 제주도관광협회의 국내·국제여행업분과, 관광호텔업분과, 일반숙박업분과 등 18개 분과위원장들은 문화관광위원회 소속 의원들에게 현장의 애로사항을 건의하고 사드배치 등으로 인한 중국인 관광객 감소 등에 따른 문제점과 보안사항을 논의했다.김두흥 국제여행업제1분과 위원장은 “2015년 메르스 사태에 이어 올해 사드 배치 등으로 인한 관광객 감소로 업계는 태풍을 맞은 상황”이라며 “시장 다변화와 향토기업의 경쟁력 강화를 위해 전세기 사업 지원을 확대해야 한다”고 피력했다.이밖에도 참석자들은 ▲관광호텔·휴양콘도의 외국인 부가가치세 영세율 적용 방안 마련 ▲‘찾아가는 관광안내소’ 사업 운영지원 ▲관광관련 정책자금 융자 상환기간 연장 ▲제주공항 내 렌터카 호객행위 단속 강화 ▲외국인 고용허가제 등록 완화 ▲마을·관광사업체 연계 축제 지원 활성화 ▲도내 관광 교통업 경쟁력 강화 ▲도내 관광사업체 대외 경쟁력 강화 지원 사업 추진 등을 건의했다.김희현 위원장은 “도내 관광사업체가 매우 힘든 상황으로 알고 있다. 업계의 애로사항을 듣고 정책에 반영하기 위해 이번 간담회를 마련했다”며 “제주도정, 유관기관과 논의·협력을 통해 최대한 지원을 아끼지 않도록 노력하겠다”고 말했다. 이승현 기자  isuna@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 이승현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 해외제주관광홍보사무소 합동 워크숍 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 해외제주관광홍보사무소 합동 워크숍 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 해외제주관광홍보사무소 합동 워크숍 지화 승인 2017.01.20 13:45 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도는 오는 23일부터 25일까지 3일간 제주웰컴센터 및 도내일원에서 해외 11개 지역 제주관광홍보사무소장(중국 5, 대만 1, 일본 3, 말레이시아 1, 베트남 1)과 도, 제주관광공사, 제주특별자치도관광협회, (사)제주컨벤션뷰로 마케팅 관계자 30여명이 참가하는 2017년 합동 워크숍을 진행한다. 이번 개최되는 합동 워크숍은 제주관광 질적 성장이 가시화될 수 있는 대안을 제시하고 마케팅 방향을 설정하기 위해 마련된 것으로, 관광 시장다변화에 구체적 방안이 제시될 것으로 기대를 모으고 있다. 우선, 중국 사드영향 및 한한령 등의 대외적 위협요인과 관광 트렌드 변화에 대응하기 위해 저가단체관광을 고부가 개별․목적 관광(HIS ․ H: High Quality I:Individual S:Special)으로 전환하기 위한 마케팅 계획이 논의된다. 일본 관광시장 회복을 위한 공중파 TV 광고 등 제주의 이미지를 새롭게 건설하기 위한 다양한 홍보 활동 계획도 구체화할 계획이다. 동남아․신흥시장 개척을 위해서 신규 마케팅 거점 확보와 의료관광, 무슬림 관광객 유치 중심의 타킷 마케팅 활동 계획을 공유한다. 이번 워크숍은 23일 월요일에는 제주관광공사, 제주특별자치도관광협회, (사)제주컨벤션뷰로의 마케팅분야 2017년 사업추진 계획 공유를 시작으로 권역별 관광시장 동향 및 전망을 공유하고, 토론과 주요 박람회, 세일즈 등 마케팅 일정 토론이 진행된다. 24일 화요일은 해외홍보사무소 역량강화를 위해 업무 연찬과 연간 업무성과 평가계획에 대해 설명하고, 권역별 분임 토의 결과 발표로 마무리할 예정이다. 25일 수요일은 도내 주요 관광 상품 코스 현황을 확인하고, 제주관광 상품에 대한 체험이 이뤄진다. 제주특별자치도 이승찬 관광국장은 "이번 해외제주홍보사무소장 합동 워크숍을 통해 도내 관광의 교두보 역할을 마련할 것”이라 포부를 밝히며, “국내외 정치‧경제적 위기에도 제주 관광산업이 흔들리지 않고 든든한 기초를 마련해 제주관광의 질적 성장을 유도하겠다”고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>모바일폰 빅데이터로 제주도 관광패턴 분석해보니… 2022.10.11 (화) 포토·영상 스페셜 최신 IT·과학 IT정책 인터넷 통신/방송 컴퓨팅/보안 IT기기 부품 게임 과학 산업 재계 중기/벤처 생활경제 자동차 부동산 경제 경제정책 증권 금융 경제일반 정치 대통령실 국회/정당 외교안보 정치일반 사회 사건사고 교육 지역 사회일반 인사/부음/동정 문화·생활 공연/전시 출판 여행/레저 라이프 문화일반 생활일반 전국 서울 세종대전충청 경인 제주 호남 영남 글로벌 국제경제 국제일반 연예·스포츠 연예 스포츠 오피니언 데스크칼럼 기자수첩 전문가기고 공연/전시 출판 여행/레저 라이프 문화일반 생활일반 모바일폰 빅데이터로 제주도 관광패턴 분석해보니… 김다운 기자 입력 2017.01.05 12:10 댓글 쓰기 한국은행 분석…연령대·계절·지역별로 달라 [아이뉴스24 김다운기자] 빅데이터를 이용해 최초로 제주도 관광객의 패턴을 분석한 자료가 발표됐다.5일 한국은행 제주본부가 발표한 '제주경제브리프-빅 데이터(스마트 셀)를 활용한 제주지역 관광객의 활동패턴 분석'에 따르면 제주도 관광객들은 연령대별로 선호 지역이 다르게 나타나며, 계절에 따라 지역별 선호도도 달라지는 것으로 나타났다.백경훈 한국은행 제주본부 차장과 이진 한국부동산연구원은 모바일 폰 기반의 빅데이터를 활용해 관광객의 계절별·시간대별·연령대별 특성과 활동패턴을 분석했다.빅데이터를 이용해 제주방문 관광객의 특성 및 이동패턴을 주요 지역별로 살펴보고 특히 이동경로를 구체화한 최초의 분석이다.관광객들의 모바일 폰 데이터를 이용해 이들의 공간분포를 지도기반으로 시각화해 분석했으며, SK텔레콤 가입 관광객이 휴대한 모바일 폰 정보를 통신사 기지국을 통해 파악되는 3만197개의 셀로부터 수신해 사용했다.◆2030 세대 여름에, 4050 세대 겨울에 많이 방문관광객들의 계절별 활동패턴을 분석한 결과, 관광객 유동인구는 계절별로 편차는 있지만 제주시 중심인 제주공항, 노형동, 연동 등 도심지역과 서귀포시 청사 및 중문단지, 성산 일출봉 등에 집중된 것으로 나타났다.다만 겨울에 비해 여름과 가을에는 이들 지역에서 해변, 오름 등 여러 지역으로 분산되는 모습이었다.관광객은 오전 9시부터 여러 지역으로 확산되기 시작해 오후 6시 이후에는 숙박지인 제주시 중심과 서귀포시 청사, 중문단지 주변으로 다시 귀환하는 형태를 보였다.다만 오후 9시 이후에도 야간관광지나 음식점 밀집지역인 중문단지, 한림·모슬포항, 성산 일출봉 등에서는 유동인구가 많았다.관광지별로 유동인구가 가장 많은 시간은 대부분 오전 10~11시와 오후 5~6시였지만, 성산 일출봉·우도는 오후 1~2시로 나타났다.제주방문 관광객의 연령대별 비중을 보면 30대(25.3%)와 40대(26.0%)가 가장 많고 50대(20.5%), 20대(12.7%)의 순으로 20~50대가 전체의 84.5%를 차지했다.20대와 30대는 여름에 가장 비중이 높았으며, 40대와 50대는 겨울에, 10대 이하와 60대 이상은 날씨가 온화한 봄∙가을에 연령대별 비중이 가장 높았다.20대는 제주시 중심 등 일부 지역에 머무르며 이동반경이 크지 않은 반면 30~ 40대는 선 모양(線形)의 이동패턴을 보이며 다양한 지역을 활발하게 방문하는 것으로 분석됐다.서귀포시 청사 주변은 전 연령대가 고르게 방문하고 있으나 제주시 중심은 30~40대, 한라산은 50대, 중문단지는 30대가 강세를 보였다.서북부 해변은 유명 해수욕장이 위치해 있어 여름 밀집도가 월등히 높을 것이라 예상됐지만, 실제 계절별로 큰 차이는 없었다. 성산 일출봉과 우도는 제주도의 대표적인 관광지로 유동인구가 꾸준한 편이나 관광객 수는 다른 계절에 비해 겨울에 상당 폭 감소했다. 한라산은 겨울과 봄에 관광객이 비슷한 수준으로 많은 반면 여름에는 가장 적었다.백경훈 차장과 이진 연구원은 "제주도 지역별로 관광객 밀집계절과 시간대, 연령대 등이 상이한 점을 감안해 그 요인을 파악하고 필요사항, 지원정책 등을 마련함이 바람직하다"고 진단했다.예를 들어 겨울 한라산 방문이 많은 50대를 고려해 안전요원을 겨울에 집중배치하고 심야시간의 유동인구 밀집지역에 대해서는 대중교통 증차, 운행시간 연장 등을 추진하는 방안 등을 제시했다.정책마련에 있어서도 유동인구 집중도가 높아 부가가치 창출효과가 큰 지역을 우선적으로 고려할 필요가 있으며, 제2공항 건설을 앞둔 시점에서 일부에 밀집돼 있는 관광객 분포를 더욱 집중시킬 지, 분산시킬 지에 대한 고민이 필요하다는 분석이다.김다운기자 kdw@inews24.com 김다운 기자의 다른 기사 보기 민·관 합동 빅데이터 '컨트롤타워' 나왔다 '빅데이터 교통사고 위험 예측 서비스' 전국 확대 포토뉴스 뉴스 | 포토ㆍ영상 | 오피니언 | 스페셜 회사소개 | 고객센터 | 광고안내 | 개인정보취급방침 Copyright(c) inews24.com. All Rights Reserved.Please read inews24’s privacy policy. Contact us for more information 모바일 웹 보기 제호 : 아이뉴스24 &amp;nbsp|&amp;nbsp등록번호 : 서울아00107 &amp;nbsp|&amp;nbsp 등록일자 : 2005.11.07 &amp;nbsp|&amp;nbsp 사업자 등록번호 : 120-81-97512 &amp;nbsp|&amp;nbsp 통신판매업 신고 : 2013-서울마포-0342 &amp;nbsp|&amp;nbsp 서울시 마포구 독막로19길 15 BR엘리텔 B동 3층 대표전화 : (02)3347-114 &amp;nbsp|&amp;nbsp 발행인 : 이창호 &amp;nbsp|&amp;nbsp 편집인 : 박동석 &amp;nbsp|&amp;nbsp 개인정보관리 책임자 : 배석강 &amp;nbsp|&amp;nbsp 청소년보호 책임자 : 배석강</t>
+  </si>
+  <si>
+    <t>제주도, 올해 관광분야 834억원 투입 5대시책 추진 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 올해 관광분야 834억원 투입 5대시책 추진 등록 2017.01.05 09:51:26수정 2017.01.05 10:09:17 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 올해 관광 분야 5대 역점시책을 선정해 834억원을 투입해 추진한다고 4일 밝혔다. 도는 올해 5대 역점시책으로 ▲ 질적성장 내실화 ▲ 저가 관광 근절과 관광사업체 경쟁력 강화 ▲ 고품격 MICE 육성 ▲ 마케팅 전략 변화와 시장 다변화 ▲ 대(對) 중국 전략적 대응 및 협업체계 구축을 선정했다. 도는 우선 질적 성장의 내실화를 위해 345억원의 사업비를 투입해 관광객 급증에 따른 제주 미래 방문 수요 예측, 숙박시설, 상하수도, 폐기물 등 분야별 관광 인프라 수용 능력 분석과 대응 방안을 강구하기로 했다. 원스톱 관광서비스를 지원할 제주관광종합지원 서비스센터를 하반기부터 운영하고, 세계지질공원 인근 마을과 도서 지역 등 지역 연계 융·복합 관광 활성화를 통해 마을관광의 내실화를 다진다. 저가 관광 근절과 관광사업체 경쟁력 강화를 위해 22억원의 사업비를 들여 온라인 마켓 '탐나오'의 운영을 지원하고, 저가 관광 근절을 위해 무등록 여행업, 무자격 가이드, 자가용 유상 운송행위 합동단속 강화, 외국인 관광객 다중 이용업체 점검을 실시하고, 적정송객수수료 상한제한제도 개선도 지난해에 이어 계속 추진할 방침이다. 고품격 MICE 산업 육성을 위해 356억원의 사업비를 투자하고 MICE 다목적 복합시설을 확충하고 MICE 박람회의 제주홍보관 운영, 지역 MICE 업체 마케팅 지원도 추진한다. 마케팅 전략변화와 시장 다변화 등을 위해 108억원의 사업비를 투자해 중화권은 저가 단체관광을 고부가 개별·목적 관광으로 전환하고 일본 지역은 TV 광고 등으로 제주 관광 이미지 혁신을 위한 홍보에 나선다. 동남아와 신흥시장은 해외사무소 거점을 통한 시장 다변화를 꾀하고, 일본 지역 직항노선을 확대하고 아세안과 신흥시장은 전세기 취항 지원 등 항공 노선을 개척하기로 했다. 대(對) 중국 전략적 대응과 협업체계 구축을 위해 중국 정치·경제 동향 분석과 대응 과제를 도출하고 중국 지방정부와의 관광협력 시스템을 구축해 저가 관광 개선을 위한 협력 방안을 모색할 방침이다. 이승찬 도 관광국장은 "지난해부터 중국 정부의 한한령(限韓令), 사드 문제, 전세기 운항 불허 등 중국 시장 변화가 유동적이지만 올해는 이에 알맞게 대응할 수 있도록 전략을 마련해 제주 관광의 해외시장 다변화에 주력하겠다"고 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 기은 지속가능경영보고서, LACP 비전 어워즈 '대상' "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>[프로필] 현수송 제주도 민군복합형관광미항 갈등해소지원단장 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 [프로필] 현수송 제주도 민군복합형관광미항 갈등해소지원단장 (제주=뉴스1) 오미란 기자					| 2017-01-11 13:31 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 현수송 제주도 민군복합형관광미항 갈등해소지원단장 .© News1 제주도가 1월 13일자로 단행한 상반기 정기인사에서 현수송(58) 제주도 협치정책기획관이 제주도 민군복합형관광미항 갈등해소지원단장으로 승진 임명됐다.현 신임 단장은 1986년 공직에 입문해 제주도 세계환경수도추진본부 환경관리과장, 제주도 환경보전국 환경정책과장, 제주도 특별자치행정국 자치행정과장 등을 지냈다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>中 악성 스모그에 '폐정화 관광' 까지…제주도·푸껫 선호 | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE 中 악성 스모그에 '폐정화 관광' 까지…제주도·푸껫 선호 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 국제 中 악성 스모그에 '폐정화 관광' 까지…제주도·푸껫 선호 中 악성 스모그에 '폐정화 관광' 까지…제주도·푸껫 선호 김아영 기자 김아영 기자 Seoul 이메일 보내기 작성 2017.01.09 17:58 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 악성 스모그 사태가 길어지면서 중국에서 이른바 '폐정화 관광'이 인기라고 블룸버그 통신이 보도했습니다. 중국 최대 온라인 여행사 씨트립은 지난달 발간한 보고서의 '스모그 탈출 여행 순위'를 통해 최근 3개월간 '스모그 탈출', '폐 정화', '숲'이라는 키워드 검색량이 3배 늘었다고 밝혔습니다. 또 올겨울 여행 업계에선 스모그 회피 여행이 화두로 떠올랐고, 신선한 공기를 접할 휴양지들은 소비자들의 시선을 끌고 있습니다. 현재까지 폐 정화 여행의 목적지로 가장 인기가 높은 곳은 한국 제주, 태국 푸껫, 인도네시아 발리 등입니다. 싼야, 샤먼, 구이린 등 중국 국내 지역도 주목받고 있습니다. 업체는 스모그 장막이 중국 서남부에서 동북부로 이동하면서 베이징 거주자들이 맑은 공기를 위한 탈출을 가장 열망하고 있다고 전했습니다. 블룸버그 통신은 스모그로 인해 새해 연휴 기간 베이징 관광객 수가 전년 대비 24% 줄어드는 등 베이징 관광 업계가 큰 타격을 받고 있다고 설명했습니다. 스모그가 관광객 감소의 직접적 원인으로 지목되지는 않았지만, 어느 정도는 영향을 끼쳤다고 통신은 해석했습니다. 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 0 김아영 기자 다른 기사 보기 &gt; 기자님 좋아요4390 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회 1월 친선골프대회 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 골프동호회 1월 친선골프대회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도관광협회 골프동호회 1월 친선골프대회 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.01.11 16:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회 골프동호회는 지난 10일 회원 30여명이 참가한 가운데 1월 친선골프대회를 개최했다. ⓒ제주의소리 제주도관광협회 골프동호회(회장 정양훈·제주통나무휴양펜션 대표)는 지난 1월10일 스프링데일CC에서 회원사 임직원과 가족 등 30여명이 참가한 가운데 1월 친선 골프대회를 개최했다.김영진 제주도관광협회장은 이번 대회를 끝으로 1년 임기를 마친 정양훈 골프동호회장에게 2016년 한해 동안 골프동호회 발전과 도내 관광업계 유기적 네트워크 구축에 노력해준 공로로 감사패를 전달했다.신임 골프동호회장에는 고규완 (주)제주씨월드 대표가 선임됐다.◇대회 결과△우승=김서윤 제주사랑렌트카 전무 △메달리스트=고규완 제주씨월드 대표 △준우승=고맹종 이디컴 대표 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 전세기 운항 지원사업 지속 추진-국민일보 시사 시사 &gt; 전체기사 제주도관광협회, 전세기 운항 지원사업 지속 추진 입력 : 2017-01-08 22:05 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도와 제주도관광협회는 ‘도내 여행업계 전세기 운항 지원’ 평가회를 열고 지난해 제주를 오가는 국제선 전세기를 통해 외국인 관광객 1016명을 유치했다고 8일 밝혔다. 두 기관은 일본·필리핀·중국 등에서 전세기 6편(왕복 12회)을 운항해 전체 예정 모객 인원(1111명) 중 91.5%를 유치하는 성과를 거뒀다. 특히 도내 여행사 27곳이 전세기 운항에 참여하면서 호텔·관광지·식당 등 57곳이 외국인 관광객들에게 소개됐다. 도관광협회는 여행업계의 지속적인 참여 확대를 위해 효과적인 지원기준을 마련할 방침이다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야”</t>
+  </si>
+  <si>
+    <t>제주특별자치도관광협회, 탐나오에서 제주도 감귤, 오메기떡 등 특산품 판매 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 12:20 (화) 처음으로 로그인 회원가입 이전 다음 제주특별자치도관광협회, 탐나오에서 제주도 감귤, 오메기떡 등 특산품 판매 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주특별자치도관광협회, 탐나오에서 제주도 감귤, 오메기떡 등 특산품 판매 홍재희 기자 승인 2017.01.13 09:00 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도가 지원하고 제주특별자치도관광협회가 운영하는 제주여행 오픈마켓에서 제주도 특산기념품 판매를 시작했다고 밝혔다. 지난해 3월 제주도관광협회에서 오픈한 제주도 온라인마켓은 중간 수수료 거품을 없애 저렴한 제주의 여행 및 관광 상품을 판매하는 곳으로 알려진 곳이며 합리적이고 다양한 상품을 선보이는 할인마켓으로 알려지면서 오픈 10개월 만에 매출 20억원을 돌파하기도 했다. 높은 신뢰성을 구축한 이 오픈마켓은 항공권과 숙박, 렌터카 등 여행상품 외에 제주도를 직접 여행하기 힘든 사람들이 제주도의 음식과 가공품 등을 경험할 수 있도록 제주도산 감귤과 한라봉 등의 과일과 가공식품, 향장품 등을 소개하고 있다. 현재 제철인 제주 감귤과 한라봉, 황금향 등과 함께 겨울 제주의 전통 보양식 꿩엿 등을 구매할 수 있으며 일부 품목은 할인 판매되고 있다. 특히 1월 설 명절이 다가오면서 최근엔 제주 흑돼지와 각종 수산물, 오메기떡과 제주를 담은 다양한 선물세트 주문도 이어지고 있다. 제주의 마유 등 토산물이 함유된 화장품 등 뷰티 용품도 판매하고 있으며 호기심에 핸드크림과 비누를 구매했던 고객들 중심으로 기초 스킨케어 구매 문의가 이어지고 있다. 제주도에서 ‘제주도 우수관광기념품’ 등을 매년 선정한 기념품을 판매하고 있으며 특색있고 재미있는 공예품도 주문 제작이 가능하다. 제주도관광협회 관계자는 “단순히 제주도 관광상품만 파는 곳이 아닌 특산 기념품도 판매하고 있으며 제주도 고유의 특산품을 지속적으로 연구, 개발하고 있다”라고 전했다. 제주도 특산물과 관광패키지 구매 및 문의는 탐나오 홈페이지에서 확인할 수 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 홍재희 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 정책 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
+  </si>
+  <si>
+    <t>제주도 제주관광 질적 성장과 시장 다변화에 초점 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 제주관광 질적 성장과 시장 다변화에 초점 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 제주관광 질적 성장과 시장 다변화에 초점 기자명 윤주형 기자 입력 2017.01.05 14:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저가관광 근절 등 5개 역점분야 발표 제주도가 제주관광의 질적 성장과 시장 다변화 등을 위해 저가관광 근절 등 5개 역점분야를 발표했다. 도는 올해 질적 성장 내실화, 저가관광 근절 및 관광사업체 경쟁력 강화, 고품격 마이스(MICE)산업 육성, 마케팅 전략변화 및 시장 다변화, 대중국 전략적 대응 및 협업체계 구축 등 5개 분야를 집중적으로 추진한다고 5일 밝혔다. 이에 따라 도는 모두 834억원을 들여 제주관광의 질적 성장과 시장을 다변화한다는 방침이다. 도는 우선 도민과 관광객 만족 실현을 위한 질적 성장 내실화와 제주관광 이미지 제고에 주력한다. 이를 위해 도는 제주관광 수용력 분석연구 등을 실시해 관광객 급증에 따른 제주 미래 방문수요 예측, 숙박시설, 상·하수도, 폐기물 등 분야별 관광 인프라 수용 능력 분석 및 대응방안을 마련한다는 복안이다. 또 저가관광 근절과 관광사업체 경쟁력 강화 등을 위해 무등록여행업, 무자격 가이드, 자가용 유상 운송행위 합동단속 강화, 외국인 관광객 다중 이용업체 점검, 적정 송객수수료 상한 제한 제도개선 지속 건의 등을 추진할 계획이다. 이와 함께 도는 동남아와 신흥시장은 해외사무소 거점을 통한 시장 다변화를 꾀하고 타깃 마케팅을 추진한다. 이승찬 제주도 관광국장은 "지난해부터 중국 정부의 한한령, 사드 문제, 전세기 운항 불허 등 중국시장 변화가 유동적이지만 국제 정세의 동향을 분석해 대응함으로써 제주관광의 해외시장 다변화 유도 기회로 삼을 것"이라며 "관광협력시스템을 통해 제주관광 내실화에도 총력을 다할 것"이라고 말했다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 '질적관광 전환' 5대 정책 발표...사업비 834억 투입 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 '질적관광 전환' 5대 정책 발표...사업비 834억 투입 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 '질적관광 전환' 5대 정책 발표...사업비 834억 투입 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2017.01.05 15:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 올해 사업비 834억원을 투입하는 관광분야 5대 역점 정책을 5일 발표했다.중점 추진될 5대 정책은 △질적성장 내실화 △저가관광 근절과 관광사업체 경쟁력 강화 △고품격 MICE산업 육성 △마케팅 전략변화와 시장다변화 △대 중국 전략적 대응 및 협업체계 구축 등이다.우선 345억원의 예산을 들여 도민과 관광객 만족 실현을 위한 질적성장 내실화와 제주관광 이미지 제고에 주력한다는 방침이다.'제주관광 수용력 분석'연구를 실시해 관광객 급증에 따른 제주미래 방문수요 예측, 숙박시설, 상․하수도, 폐기물 등 분야별 관광인프라 수용능력 분석 및 대응방안을 강구하고, 개별관광객 안전과 편의를 위해 '제주관광종합 지원서비스센터'를 하반기부터 운영한다. 이와 더불어 제주관광의 정확한 산업통계 구축을 위해 올해부터 1000여개소의 사업체 표본을 대상으로 '관광산업 동향조사'도 실시한다. 저가관광 근절과 관광사업체 경쟁력 강화를 견인하기 위해 22억원의 사업비를 지원한다.테마별 우수 여행상품 선정과 홍보, 제주관광아카데미 교육, 우수관광사업체 지정 및 홍보, 관광기념품 공모전 개최 및 입상작 홍보 지원 등 관광사업체 지원도 다양하게 확대한다.또 저가관광 근절을 위해 무등록여행업, 무자격 가이드, 자가용 유상 운송행위 합동단속 강화와 외국인 관광객 다중 이용업체에 대해 점검을 실시하고, 적정 송객수수료 상한 제한 제도개선 건의도 지속적으로 추진해 나갈 계획이다.고품격 제주관광 실현 등을 위해서는 356억원의 사업비를 투자해 MICE산업 육성을 도모한다. MICE 다목적 복합시설 확충을 추진하고, 국내.국제회의 개최, MICE 유치 및 인센티브 투어 지원, 제주 MICE대전 등을 통해 MICE 산업 경쟁력을 강화한다.마케팅 전략변화와 시장다변화 등을 위해 108억원의 사업비를 투자한다. 중화권은 저가단체 관광을 고부가 개별.목적관광으로 전환하고 이를 유도하기 위해 헬스, 도보 등 테마상품 개발을 통해 현지여행사와 랜드여행사를 매칭한다.일본 지역은 전국 및 지역 TV 광고 추진 등 제주관광이미지 혁신을 위한 홍보에 주력하고, 동남아와 신흥시장은 해외사무소 거점을 통한 시장 다변화를 꾀하고 타깃 마케팅을 추진한다.제주도 관계자는 "지난해부터 중국 정부의 한한령, 사드문제, 전세기 운항 불허 등 중국시장 변화가 유동적이지만, 국제 정세의 동향을 분석해 대응함으로써 제주관광의 해외시장 다변화 유도 기회로 삼을 것”이며 “관광협력시스템을 통해 제주관광 내실화에도 총력을 다할 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 볼거리 실컷 구경 후 중문 맛집 들려보자 &lt; 상생단지 &lt; 경제일반 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 볼거리 실컷 구경 후 중문 맛집 들려보자 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 경제일반 상생단지 제주도 중문관광단지 볼거리 실컷 구경 후 중문 맛집 들려보자 기자명 김미영 기자 입력 2017.01.05 14:40 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 중문관광단지 볼거리 하면 대표적으로 생각나는 곳이 주상절리이다.주상절리는 산책하기에도 참 좋은곳이다. 바다와 나무가 어우러져 멋진 풍경을 만들고 아이들의 관심을 끌수 있는 모형물들도 많아서 한번쯤은 둘러보아도 정말 좋은곳이다.주상절리는 화산에서 불출한 용암이 바다와 만나 식는 과정에서 규칙적인 균열이 생긴 육각형모양의 기둥들을 말한다. 제주의 아름다운 절경을 볼수 있는 주상절리는 정말 멋진 곳이다. 중문관광단지 안에는 선인장을 비롯하여 세계 각지의 식물을 전시해 놓은 여미지식물원, 해양수족관과 돌고래·바다사자·펭귄 등의 묘기를 볼 수 있는 퍼시픽랜드, 제주도의 전통 가옥과 어민들의 생활상 등을 재현한 민속마을 등이 있다. 또 단지 계곡 위에는 상중하 3단으로 된 천제연폭포가 있으며, 천제연계곡을 가로질러 길이 128m의 아치형 철교 선임교가 놓여 있다. 이렇게 볼거리가 다양한 중문관광단지 구경후에는 중문 맛집 천제연토속음식점에 들려서 제주도에서 유명한 통갈치조림을 먹어 보는 것 도 좋다. 중문 맛집 천제연토속음식점에서는 통갈치조림 4인세트를 주문하면 통갈치조림, 전복돌솥밥2개, 전복뚝배기2개, 공깃밥2개가 나오며 버터전복구이를 추가로 주문하면 상다리가 부러질 정도로 푸짐하게 나온다.통갈치조림은 맵지 않고 조금 달달하기까지 해서 모든 연령대가 좋아할 맛이고, 특히 버터전복구이는 상당히 고소하고 씹는 식감이 매우 부드러워 좋았다. 많은 연예인들과 맛집 프로그램에서 촬영을 할 정도로 맛이 좋은 천제연토속음식점이다.중문관광단지를 실컷 구경하고 들리면 좋은 가게이다. 저작권자 © 금강일보 무단전재 및 재배포 금지 김미영 기자 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 제13회 대전효문화뿌리축제 성료 07 시중자금 은행 쏠림, 반작용 우려 08 1호선, 유튜브 자주 끊기는 이유 09 “지속가능한 대학 최선 다할 것” 10 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 11 피플바이오, 주가 강세 보여 12 비난·논란 자초하는 대전시의회 13 국민 허리띠 졸라매는데 공기업은 특혜… 14 버킷스튜디오 주가 급락, 이유는? 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 금산군, 우수 평생학습도시 선정 12 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 13 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 14 당진시재향군인회, 제70주년 재향군인의 날 기념행사 개최 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 ‘복귀’ 홍진영, 근황은? 05 박수홍 엄마 ‘카레사건’ 재조명 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 '스맨파' 새삥 안무 표절 논란 뭐길래? 10 고두심 아들 김정환 누구? 11 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 12 [오늘날씨] 서울 아침 6도, 가을 추위 찾아와... 강한 바람에 체감온도도 뚝 13 골프선수 박결, 국내 톱스타와 불륜설에... 14 김세정‘♥안효섭’과의 근황 전체보기 가장 빠른 충청뉴스 태안군민체육대회 6년 만에 15일 개최 태안군민 ‘화합의 한마당’ 태안군민체육대회가 2016년 이후 6년 만에 15일 성대한 막을 올린다.군민체육대회는 태안종합운동장 및 보조경기장에서 8개 읍·면민과 출향군민이 참여한 ... 금산군, 우수 평생학습도시 선정 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>1500만 제주관광 시대 '출발'...새해 첫 제주도 여행객은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 1500만 제주관광 시대 '출발'...새해 첫 제주도 여행객은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 1500만 제주관광 시대 '출발'...새해 첫 제주도 여행객은? 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.01.01 12:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 1500만 제주관광 시대를 맞이한 가운데, 2017년 정유년 새해 첫 관광객이 제주를 찾았다.바로 그 주인공은 국내선을 이용해 처음 입도한 정영희씨(64세, 인천)가족과 국제선은을 이용한 마혼와이씨(58세, 홍콩) 가족.이들은 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 2017년 정유년(丁酉年) 새해 첫날을 맞아 개최한 제주방문객 환영행사 행운의 주인공으로 선정돼 제주특산품 상품권, 꽃다발 등 푸짐한 기념품이 주어졌다.이날 제주도와 제주관광공사는 국내.국제여객터미널.성산포항 제주관광안내센터에서도 방문객을 대상으로 기념품(복주머니)을 제공하며 새해 첫 방문 환영메세지와 감사의 마음을 전달했다.관광협회 관계자는 "2017 새해 첫 입도객 환영행사를 시작으로, '도민체감형 新관광산업 생태계 조성'이라는 비전과 함께, 제주도, 관광협회, 관광행정기관과 관광업계가 유기적인 협업 관계를 통한 제주관광 질적성장 도약을 위해 전력을 기울이겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 일본과 교류 활발한 지역으로 꼽혀…관광객 유입은 과제 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 일본과 교류 활발한 지역으로 꼽혀…관광객 유입은 과제 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 정부 제주도, 일본과 교류 활발한 지역으로 꼽혀…관광객 유입은 과제 김동일 기자 승인 2017.01.15 15:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 외교부, ‘2016년 한일관계’ 연구보고서에 제주 거론수도권에 편중된 일본인 관광객 유치 방안 마련 과제 [제주일보=김동일 기자] 제주특별자치도가 동아시아문화도시, 우호협정 및 자매도시 협정 체결, 청소년 교류 등 일본과 다양한 교류를 벌이고 있는 지방자치단체로 나타났다.이 같은 교류 증진에도 불구하고 동아시아문화도시 사업인 경우 화제성이 부족한 데다 일본인 관광객의 수도권에 편중돼 있는 것으로 조사돼 실태 분석과 대책 마련이 시급하다는 지적이 나왔다.15일 외교부가 마련한 ‘2016년 한일관계’ 연구보고서에 따르면 제주도는 동아시아문화도시 지정은 물론 그동안 아오모리현, 이바라키현, 도쿄도, 효고현, 사가현 등과 자매·우호관계를 맺는 등 일본과 교류가 활발한 지역으로 꼽혔다.제주도의 경우 지난해 일본 나라시, 중구구 낭보시와 함께 2016년 동아시아문화도시로 선정된 데다 한중일 문화장관회의도 제주에서 열리는 등 문화분야 교류가 활발한 곳으로 나타났다. 또 제주도와 양 행정시의 우호협정 체결도 다른 지역보다 많은 것으로 조사됐다.그러나 이 같은 활발한 교류에 비해 문화예술 분야 화제성이 부족한 것은 물론 일본인들의 주요 관광지의 75%가 서울에 몰려 있어 일본인 관광객 지방 확산이 필요한 것으로 지적됐다. 제주의 경우 중국인들이 많이 찾고 있지만 일본인들은 그다지 많이 방문하지 않아 실태 분석과 대책 마련이 필요하다는 의견이 나왔다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>제주도 관광, 夏 2030대·冬 4050대 많아 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설.부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설/부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼&amp;컨퍼런스 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 정치 사회 IT.과학 국제 문화 연예 스포츠 산업 금융 증권 건설/부동산 유통 경제일반 기자수첩 칼럼 인사 동정 부음 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 경제&gt;경제일반 제주도 관광, 夏 2030대·冬 4050대 많아 메트로신문 이봉준 기자 ㅣ2017-01-05 12:00:00 뉴스듣기 가 가 가 가 가 20대와 30대는 여름에, 40대와 50대는 겨울에 주로 제주도를 관광하는 것으로 나타났다. 5일 한국은행 제주본부가 발표한 '빅데이터(스마트셀)를 활용한 제주지역 관광객 활동패턴 분석'에 따르면 2030대는 여름, 4050대는 겨울에 제주도 방문이 많았다. 제주도 방문객은 제주공항과 연동 등 도심지역 중심과 서귀포시 청사 등에서 관광을 집중했다. 특히 제주시 방문은 3040대가, 한라산은 50대가, 중문단지는 30대가 강세를 띄었다. 한은 제주본부 경제조사팀 백경훈 차장은 "지역별로 관광객 밀집계절과 시간대, 연령대 등이 상이함에 따라 그 요인을 파악하고 필요사항과 지원정책 등을 마련할 필요가 있다"고 제언했다. 메트로신문 이봉준 기자 bj35sea@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr    ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
@@ -431,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +637,227 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
